--- a/LUISA_damage_info_curves.xlsx
+++ b/LUISA_damage_info_curves.xlsx
@@ -1,37 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deltares-my.sharepoint.com/personal/ted_buskop_deltares_nl/Documents/Documents/GitHub/FLOODS/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="202" documentId="11_7BE859CF2764FA39C2903889AFA03F75A90CA07F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BEDE3814-E24C-4B07-9F9D-B3F09ECD9C36}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
   <definedNames>
     <definedName name="Legend_output" localSheetId="0">Sheet1!$B$2:$AG$47</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -47,6 +28,30 @@
     <t>GDP/capita</t>
   </si>
   <si>
+    <t>a_res</t>
+  </si>
+  <si>
+    <t>a_com</t>
+  </si>
+  <si>
+    <t>a_ind</t>
+  </si>
+  <si>
+    <t>b_res</t>
+  </si>
+  <si>
+    <t>b_com</t>
+  </si>
+  <si>
+    <t>b_ind</t>
+  </si>
+  <si>
+    <t>a_landuse</t>
+  </si>
+  <si>
+    <t>b_landuse</t>
+  </si>
+  <si>
     <t>construction €/m²</t>
   </si>
   <si>
@@ -62,6 +67,18 @@
     <t>max structure €/m²</t>
   </si>
   <si>
+    <t>residential content importance factor</t>
+  </si>
+  <si>
+    <t>commercial content importance factor</t>
+  </si>
+  <si>
+    <t>industrial content importance factor</t>
+  </si>
+  <si>
+    <t>landuse content importance factor</t>
+  </si>
+  <si>
     <t>max content €/m²</t>
   </si>
   <si>
@@ -80,6 +97,15 @@
     <t>total €/m²</t>
   </si>
   <si>
+    <t>residential</t>
+  </si>
+  <si>
+    <t>commercial</t>
+  </si>
+  <si>
+    <t>industrial</t>
+  </si>
+  <si>
     <t>weakest outbuilding</t>
   </si>
   <si>
@@ -234,63 +260,18 @@
   </si>
   <si>
     <t>Sea and ocean</t>
-  </si>
-  <si>
-    <t>residential</t>
-  </si>
-  <si>
-    <t>commercial</t>
-  </si>
-  <si>
-    <t>industrial</t>
-  </si>
-  <si>
-    <t>a_res</t>
-  </si>
-  <si>
-    <t>b_res</t>
-  </si>
-  <si>
-    <t>a_com</t>
-  </si>
-  <si>
-    <t>a_ind</t>
-  </si>
-  <si>
-    <t>b_com</t>
-  </si>
-  <si>
-    <t>b_ind</t>
-  </si>
-  <si>
-    <t>b_landuse</t>
-  </si>
-  <si>
-    <t>a_landuse</t>
-  </si>
-  <si>
-    <t>residential content importance factor</t>
-  </si>
-  <si>
-    <t>commercial content importance factor</t>
-  </si>
-  <si>
-    <t>industrial content importance factor</t>
-  </si>
-  <si>
-    <t>landuse content importance factor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="#,##0.00%"/>
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
     <numFmt numFmtId="165" formatCode="#,##0%"/>
-    <numFmt numFmtId="167" formatCode="#,##0.000"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00%"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,36 +287,27 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9c0006"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C5700"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C5700"/>
+      <color rgb="FF9c5700"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -347,21 +319,21 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFffc7ce"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFffeb9c"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFc6efce"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -378,113 +350,94 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </left>
       <right style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </right>
       <top style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFC6C6C6"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="21">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="166" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="166" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="167" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf xfId="0" numFmtId="166" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Good" xfId="2" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -495,10 +448,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -536,71 +489,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -628,7 +581,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -651,11 +604,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -664,13 +617,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -680,7 +633,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -689,7 +642,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -698,7 +651,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -706,10 +659,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -774,51 +727,56 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:AI47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N45" sqref="N45"/>
+    <sheetView workbookViewId="0" tabSelected="1">
+      <pane state="frozen" activePane="bottomLeft" topLeftCell="A2" ySplit="1" xSplit="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.85546875" style="19" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" style="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="8.28515625" style="19" customWidth="1"/>
-    <col min="10" max="11" width="8.28515625" style="10" customWidth="1"/>
-    <col min="12" max="12" width="18" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="18.28515625" style="9" customWidth="1"/>
-    <col min="20" max="20" width="26.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="20.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19" style="11" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="21.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="23.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="18.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="15" width="14.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="16" width="46.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="17" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="18" width="6.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="17" width="6.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="17" width="6.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="18" width="8.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="17" width="8.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="18" width="8.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="18" width="8.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="18" width="8.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="17" width="18.005" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="17" width="17.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="17" width="18.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="17" width="21.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="17" width="18.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="17" width="18.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="17" width="18.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="17" width="18.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="17" width="26.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="17" width="17.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="17" width="15.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="17" width="14.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="17" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="17" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="17" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="27" max="27" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="28" max="28" style="20" width="11.005" customWidth="1" bestFit="1"/>
+    <col min="29" max="29" style="20" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="30" max="30" style="20" width="20.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="31" max="31" style="20" width="12.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="32" max="32" style="20" width="19.005" customWidth="1" bestFit="1"/>
+    <col min="33" max="33" style="20" width="21.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="34" max="34" style="20" width="23.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="35" max="35" style="20" width="18.290714285714284" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -828,142 +786,139 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="L1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="R1" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="S1" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="T1" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="U1" s="2" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="W1" s="23" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="X1" s="23" t="s">
+      <c r="L1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="Z1" s="23" t="s">
+      <c r="N1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="AA1" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB1" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC1" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD1" s="6" t="s">
+      <c r="O1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="Q1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="R1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="S1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="T1" s="8" t="s">
         <v>19</v>
       </c>
+      <c r="U1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="11" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1">
         <v>1111</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C2" s="3">
         <v>32169</v>
       </c>
-      <c r="D2" s="21">
-        <v>24.077999999999999</v>
-      </c>
-      <c r="E2" s="20">
-        <v>33.642000000000003</v>
-      </c>
-      <c r="F2" s="20">
-        <v>30.824000000000002</v>
-      </c>
-      <c r="G2" s="21">
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="H2" s="20">
+      <c r="D2" s="12">
+        <v>24.078</v>
+      </c>
+      <c r="E2" s="3">
+        <v>33.642</v>
+      </c>
+      <c r="F2" s="3">
+        <v>30.824</v>
+      </c>
+      <c r="G2" s="12">
+        <v>0.3852</v>
+      </c>
+      <c r="H2" s="3">
         <v>0.3574</v>
       </c>
-      <c r="I2" s="21">
-        <v>0.32490000000000002</v>
-      </c>
-      <c r="J2" s="18">
+      <c r="I2" s="12">
+        <v>0.3249</v>
+      </c>
+      <c r="J2" s="12">
         <f>AA2*D2+AB2*E2+AC2*F2</f>
-        <v>28.86</v>
-      </c>
-      <c r="K2" s="18">
+      </c>
+      <c r="K2" s="12">
         <f>AA2*G2+AB2*H2+AC2*I2</f>
-        <v>0.37129999999999996</v>
       </c>
       <c r="L2" s="3">
         <f>J2*C2^K2</f>
-        <v>1361.1559723209725</v>
       </c>
       <c r="M2" s="3">
         <v>0.6</v>
@@ -976,7 +931,6 @@
       </c>
       <c r="P2" s="3">
         <f>L2*M2*(1-N2) *O2</f>
-        <v>490.01615003555008</v>
       </c>
       <c r="Q2" s="3">
         <v>0.5</v>
@@ -989,31 +943,26 @@
       </c>
       <c r="T2" s="3">
         <f>AA2*Q2+AB2*R2+AC2*S2</f>
-        <v>0.75</v>
       </c>
       <c r="U2" s="3">
-        <f t="shared" ref="U2:U47" si="0">P2*T2</f>
-        <v>367.51211252666258</v>
+        <f>P2*T2</f>
       </c>
       <c r="V2" s="3">
         <v>0.7</v>
       </c>
       <c r="W2" s="3">
-        <f t="shared" ref="W2:W47" si="1">P2*V2</f>
-        <v>343.01130502488502</v>
+        <f>P2*V2</f>
       </c>
       <c r="X2" s="3">
-        <f t="shared" ref="X2:X47" si="2">U2*V2</f>
-        <v>257.25847876866379</v>
+        <f>U2*V2</f>
       </c>
       <c r="Y2" s="3">
         <v>0</v>
       </c>
       <c r="Z2" s="3">
-        <f t="shared" ref="Z2:Z47" si="3">SUM(W2:Y2)</f>
-        <v>600.26978379354887</v>
-      </c>
-      <c r="AA2" s="15">
+        <f>SUM(W2:Y2)</f>
+      </c>
+      <c r="AA2" s="13">
         <v>0.5</v>
       </c>
       <c r="AB2" s="14">
@@ -1041,45 +990,42 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="3" spans="1:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1">
         <v>1121</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C3" s="3">
         <v>32169</v>
       </c>
-      <c r="D3" s="18">
-        <v>24.077999999999999</v>
-      </c>
-      <c r="E3" s="20">
-        <v>33.642000000000003</v>
-      </c>
-      <c r="F3" s="20">
-        <v>30.824000000000002</v>
-      </c>
-      <c r="G3" s="18">
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="H3" s="20">
+      <c r="D3" s="12">
+        <v>24.078</v>
+      </c>
+      <c r="E3" s="3">
+        <v>33.642</v>
+      </c>
+      <c r="F3" s="3">
+        <v>30.824</v>
+      </c>
+      <c r="G3" s="12">
+        <v>0.3852</v>
+      </c>
+      <c r="H3" s="3">
         <v>0.3574</v>
       </c>
-      <c r="I3" s="21">
-        <v>0.32490000000000002</v>
-      </c>
-      <c r="J3" s="18">
-        <f t="shared" ref="J3:J47" si="4">AA3*D3+AB3*E3+AC3*F3</f>
-        <v>27.903600000000001</v>
-      </c>
-      <c r="K3" s="18">
-        <f t="shared" ref="K3:K47" si="5">AA3*G3+AB3*H3+AC3*I3</f>
-        <v>0.37407999999999997</v>
+      <c r="I3" s="12">
+        <v>0.3249</v>
+      </c>
+      <c r="J3" s="12">
+        <f>AA3*D3+AB3*E3+AC3*F3</f>
+      </c>
+      <c r="K3" s="12">
+        <f>AA3*G3+AB3*H3+AC3*I3</f>
       </c>
       <c r="L3" s="3">
-        <f t="shared" ref="L3:L47" si="6">J3*C3^K3</f>
-        <v>1354.5732045318043</v>
+        <f>J3*C3^K3</f>
       </c>
       <c r="M3" s="3">
         <v>0.6</v>
@@ -1091,8 +1037,7 @@
         <v>1</v>
       </c>
       <c r="P3" s="3">
-        <f t="shared" ref="P3:P47" si="7">L3*M3*(1-N3) *O3</f>
-        <v>487.64635363144953</v>
+        <f>L3*M3*(1-N3) *O3</f>
       </c>
       <c r="Q3" s="3">
         <v>0.5</v>
@@ -1104,32 +1049,27 @@
         <v>1.5</v>
       </c>
       <c r="T3" s="3">
-        <f t="shared" ref="T3:T47" si="8">AA3*Q3+AB3*R3+AC3*S3</f>
-        <v>0.7</v>
+        <f>AA3*Q3+AB3*R3+AC3*S3</f>
       </c>
       <c r="U3" s="3">
-        <f t="shared" si="0"/>
-        <v>341.35244754201466</v>
+        <f>P3*T3</f>
       </c>
       <c r="V3" s="3">
         <v>0.5</v>
       </c>
       <c r="W3" s="3">
-        <f t="shared" si="1"/>
-        <v>243.82317681572476</v>
+        <f>P3*V3</f>
       </c>
       <c r="X3" s="3">
-        <f t="shared" si="2"/>
-        <v>170.67622377100733</v>
+        <f>U3*V3</f>
       </c>
       <c r="Y3" s="3">
         <v>0</v>
       </c>
       <c r="Z3" s="3">
-        <f t="shared" si="3"/>
-        <v>414.49940058673212</v>
-      </c>
-      <c r="AA3" s="15">
+        <f>SUM(W3:Y3)</f>
+      </c>
+      <c r="AA3" s="13">
         <v>0.6</v>
       </c>
       <c r="AB3" s="14">
@@ -1157,45 +1097,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1">
         <v>1122</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C4" s="3">
         <v>32169</v>
       </c>
-      <c r="D4" s="18">
-        <v>24.077999999999999</v>
-      </c>
-      <c r="E4" s="20">
-        <v>33.642000000000003</v>
-      </c>
-      <c r="F4" s="20">
-        <v>30.824000000000002</v>
-      </c>
-      <c r="G4" s="18">
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="H4" s="20">
+      <c r="D4" s="12">
+        <v>24.078</v>
+      </c>
+      <c r="E4" s="3">
+        <v>33.642</v>
+      </c>
+      <c r="F4" s="3">
+        <v>30.824</v>
+      </c>
+      <c r="G4" s="12">
+        <v>0.3852</v>
+      </c>
+      <c r="H4" s="3">
         <v>0.3574</v>
       </c>
-      <c r="I4" s="21">
-        <v>0.32490000000000002</v>
-      </c>
-      <c r="J4" s="18">
-        <f t="shared" si="4"/>
-        <v>27.6218</v>
-      </c>
-      <c r="K4" s="18">
-        <f t="shared" si="5"/>
-        <v>0.37082999999999999</v>
+      <c r="I4" s="12">
+        <v>0.3249</v>
+      </c>
+      <c r="J4" s="12">
+        <f>AA4*D4+AB4*E4+AC4*F4</f>
+      </c>
+      <c r="K4" s="12">
+        <f>AA4*G4+AB4*H4+AC4*I4</f>
       </c>
       <c r="L4" s="3">
-        <f t="shared" si="6"/>
-        <v>1296.417984108899</v>
+        <f>J4*C4^K4</f>
       </c>
       <c r="M4" s="3">
         <v>0.6</v>
@@ -1207,8 +1144,7 @@
         <v>1</v>
       </c>
       <c r="P4" s="3">
-        <f t="shared" si="7"/>
-        <v>466.71047427920359</v>
+        <f>L4*M4*(1-N4) *O4</f>
       </c>
       <c r="Q4" s="3">
         <v>0.5</v>
@@ -1220,32 +1156,27 @@
         <v>1.5</v>
       </c>
       <c r="T4" s="3">
-        <f t="shared" si="8"/>
-        <v>0.75</v>
+        <f>AA4*Q4+AB4*R4+AC4*S4</f>
       </c>
       <c r="U4" s="3">
-        <f t="shared" si="0"/>
-        <v>350.03285570940272</v>
+        <f>P4*T4</f>
       </c>
       <c r="V4" s="3">
         <v>0.3</v>
       </c>
       <c r="W4" s="3">
-        <f t="shared" si="1"/>
-        <v>140.01314228376108</v>
+        <f>P4*V4</f>
       </c>
       <c r="X4" s="3">
-        <f t="shared" si="2"/>
-        <v>105.00985671282082</v>
+        <f>U4*V4</f>
       </c>
       <c r="Y4" s="3">
         <v>0</v>
       </c>
       <c r="Z4" s="3">
-        <f t="shared" si="3"/>
-        <v>245.02299899658192</v>
-      </c>
-      <c r="AA4" s="15">
+        <f>SUM(W4:Y4)</f>
+      </c>
+      <c r="AA4" s="13">
         <v>0.6</v>
       </c>
       <c r="AB4" s="14">
@@ -1273,45 +1204,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1">
         <v>1123</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C5" s="3">
         <v>32169</v>
       </c>
-      <c r="D5" s="18">
-        <v>24.077999999999999</v>
-      </c>
-      <c r="E5" s="20">
-        <v>33.642000000000003</v>
-      </c>
-      <c r="F5" s="20">
-        <v>30.824000000000002</v>
-      </c>
-      <c r="G5" s="18">
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="H5" s="20">
+      <c r="D5" s="12">
+        <v>24.078</v>
+      </c>
+      <c r="E5" s="3">
+        <v>33.642</v>
+      </c>
+      <c r="F5" s="3">
+        <v>30.824</v>
+      </c>
+      <c r="G5" s="12">
+        <v>0.3852</v>
+      </c>
+      <c r="H5" s="3">
         <v>0.3574</v>
       </c>
-      <c r="I5" s="21">
-        <v>0.32490000000000002</v>
-      </c>
-      <c r="J5" s="18">
-        <f t="shared" si="4"/>
-        <v>26.776400000000002</v>
-      </c>
-      <c r="K5" s="18">
-        <f t="shared" si="5"/>
-        <v>0.36108000000000001</v>
+      <c r="I5" s="12">
+        <v>0.3249</v>
+      </c>
+      <c r="J5" s="12">
+        <f>AA5*D5+AB5*E5+AC5*F5</f>
+      </c>
+      <c r="K5" s="12">
+        <f>AA5*G5+AB5*H5+AC5*I5</f>
       </c>
       <c r="L5" s="3">
-        <f t="shared" si="6"/>
-        <v>1135.7892177685301</v>
+        <f>J5*C5^K5</f>
       </c>
       <c r="M5" s="3">
         <v>0.6</v>
@@ -1323,8 +1251,7 @@
         <v>1</v>
       </c>
       <c r="P5" s="3">
-        <f t="shared" si="7"/>
-        <v>408.88411839667083</v>
+        <f>L5*M5*(1-N5) *O5</f>
       </c>
       <c r="Q5" s="3">
         <v>0.5</v>
@@ -1336,32 +1263,27 @@
         <v>1.5</v>
       </c>
       <c r="T5" s="3">
-        <f t="shared" si="8"/>
-        <v>0.90000000000000013</v>
+        <f>AA5*Q5+AB5*R5+AC5*S5</f>
       </c>
       <c r="U5" s="3">
-        <f t="shared" si="0"/>
-        <v>367.99570655700381</v>
+        <f>P5*T5</f>
       </c>
       <c r="V5" s="3">
         <v>0.09</v>
       </c>
       <c r="W5" s="3">
-        <f t="shared" si="1"/>
-        <v>36.799570655700371</v>
+        <f>P5*V5</f>
       </c>
       <c r="X5" s="3">
-        <f t="shared" si="2"/>
-        <v>33.119613590130342</v>
+        <f>U5*V5</f>
       </c>
       <c r="Y5" s="3">
         <v>0</v>
       </c>
       <c r="Z5" s="3">
-        <f t="shared" si="3"/>
-        <v>69.919184245830706</v>
-      </c>
-      <c r="AA5" s="15">
+        <f>SUM(W5:Y5)</f>
+      </c>
+      <c r="AA5" s="13">
         <v>0.6</v>
       </c>
       <c r="AB5" s="14">
@@ -1389,45 +1311,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1">
         <v>1130</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C6" s="3">
         <v>32169</v>
       </c>
-      <c r="D6" s="18">
-        <v>24.077999999999999</v>
-      </c>
-      <c r="E6" s="20">
-        <v>33.642000000000003</v>
-      </c>
-      <c r="F6" s="20">
-        <v>30.824000000000002</v>
-      </c>
-      <c r="G6" s="18">
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="H6" s="20">
+      <c r="D6" s="12">
+        <v>24.078</v>
+      </c>
+      <c r="E6" s="3">
+        <v>33.642</v>
+      </c>
+      <c r="F6" s="3">
+        <v>30.824</v>
+      </c>
+      <c r="G6" s="12">
+        <v>0.3852</v>
+      </c>
+      <c r="H6" s="3">
         <v>0.3574</v>
       </c>
-      <c r="I6" s="21">
-        <v>0.32490000000000002</v>
-      </c>
-      <c r="J6" s="18">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K6" s="18">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="I6" s="12">
+        <v>0.3249</v>
+      </c>
+      <c r="J6" s="12">
+        <f>AA6*D6+AB6*E6+AC6*F6</f>
+      </c>
+      <c r="K6" s="12">
+        <f>AA6*G6+AB6*H6+AC6*I6</f>
       </c>
       <c r="L6" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>J6*C6^K6</f>
       </c>
       <c r="M6" s="3">
         <v>0.6</v>
@@ -1439,8 +1358,7 @@
         <v>1</v>
       </c>
       <c r="P6" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f>L6*M6*(1-N6) *O6</f>
       </c>
       <c r="Q6" s="3">
         <v>0.5</v>
@@ -1452,32 +1370,27 @@
         <v>1.5</v>
       </c>
       <c r="T6" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>AA6*Q6+AB6*R6+AC6*S6</f>
       </c>
       <c r="U6" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>P6*T6</f>
       </c>
       <c r="V6" s="3">
         <v>0</v>
       </c>
       <c r="W6" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>P6*V6</f>
       </c>
       <c r="X6" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>U6*V6</f>
       </c>
       <c r="Y6" s="3">
         <v>0</v>
       </c>
       <c r="Z6" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AA6" s="15">
+        <f>SUM(W6:Y6)</f>
+      </c>
+      <c r="AA6" s="13">
         <v>0</v>
       </c>
       <c r="AB6" s="14">
@@ -1505,45 +1418,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1">
         <v>1210</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C7" s="3">
         <v>32169</v>
       </c>
-      <c r="D7" s="18">
-        <v>24.077999999999999</v>
-      </c>
-      <c r="E7" s="20">
-        <v>33.642000000000003</v>
-      </c>
-      <c r="F7" s="20">
-        <v>30.824000000000002</v>
-      </c>
-      <c r="G7" s="18">
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="H7" s="20">
+      <c r="D7" s="12">
+        <v>24.078</v>
+      </c>
+      <c r="E7" s="3">
+        <v>33.642</v>
+      </c>
+      <c r="F7" s="3">
+        <v>30.824</v>
+      </c>
+      <c r="G7" s="12">
+        <v>0.3852</v>
+      </c>
+      <c r="H7" s="3">
         <v>0.3574</v>
       </c>
-      <c r="I7" s="21">
-        <v>0.32490000000000002</v>
-      </c>
-      <c r="J7" s="18">
-        <f t="shared" si="4"/>
-        <v>32.233000000000004</v>
-      </c>
-      <c r="K7" s="18">
-        <f t="shared" si="5"/>
-        <v>0.34115000000000001</v>
+      <c r="I7" s="12">
+        <v>0.3249</v>
+      </c>
+      <c r="J7" s="12">
+        <f>AA7*D7+AB7*E7+AC7*F7</f>
+      </c>
+      <c r="K7" s="12">
+        <f>AA7*G7+AB7*H7+AC7*I7</f>
       </c>
       <c r="L7" s="3">
         <f>J7*C7^K7</f>
-        <v>1111.7651390945011</v>
       </c>
       <c r="M7" s="3">
         <v>0.6</v>
@@ -1555,8 +1465,7 @@
         <v>1</v>
       </c>
       <c r="P7" s="3">
-        <f t="shared" si="7"/>
-        <v>400.23545007402043</v>
+        <f>L7*M7*(1-N7) *O7</f>
       </c>
       <c r="Q7" s="3">
         <v>0.5</v>
@@ -1568,32 +1477,27 @@
         <v>1.5</v>
       </c>
       <c r="T7" s="3">
-        <f t="shared" si="8"/>
-        <v>1.25</v>
+        <f>AA7*Q7+AB7*R7+AC7*S7</f>
       </c>
       <c r="U7" s="3">
-        <f t="shared" si="0"/>
-        <v>500.29431259252556</v>
+        <f>P7*T7</f>
       </c>
       <c r="V7" s="3">
         <v>0.45</v>
       </c>
       <c r="W7" s="3">
-        <f t="shared" si="1"/>
-        <v>180.10595253330919</v>
+        <f>P7*V7</f>
       </c>
       <c r="X7" s="3">
-        <f t="shared" si="2"/>
-        <v>225.13244066663651</v>
+        <f>U7*V7</f>
       </c>
       <c r="Y7" s="3">
         <v>0</v>
       </c>
       <c r="Z7" s="3">
-        <f t="shared" si="3"/>
-        <v>405.23839319994568</v>
-      </c>
-      <c r="AA7" s="15">
+        <f>SUM(W7:Y7)</f>
+      </c>
+      <c r="AA7" s="13">
         <v>0</v>
       </c>
       <c r="AB7" s="14">
@@ -1621,45 +1525,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1">
         <v>1221</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C8" s="3">
         <v>32169</v>
       </c>
-      <c r="D8" s="18">
-        <v>24.077999999999999</v>
-      </c>
-      <c r="E8" s="20">
-        <v>33.642000000000003</v>
-      </c>
-      <c r="F8" s="20">
-        <v>30.824000000000002</v>
-      </c>
-      <c r="G8" s="18">
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="H8" s="20">
+      <c r="D8" s="12">
+        <v>24.078</v>
+      </c>
+      <c r="E8" s="3">
+        <v>33.642</v>
+      </c>
+      <c r="F8" s="3">
+        <v>30.824</v>
+      </c>
+      <c r="G8" s="12">
+        <v>0.3852</v>
+      </c>
+      <c r="H8" s="3">
         <v>0.3574</v>
       </c>
-      <c r="I8" s="21">
-        <v>0.32490000000000002</v>
-      </c>
-      <c r="J8" s="18">
-        <f t="shared" si="4"/>
-        <v>30.824000000000002</v>
-      </c>
-      <c r="K8" s="18">
-        <f t="shared" si="5"/>
-        <v>0.32490000000000002</v>
+      <c r="I8" s="12">
+        <v>0.3249</v>
+      </c>
+      <c r="J8" s="12">
+        <f>AA8*D8+AB8*E8+AC8*F8</f>
+      </c>
+      <c r="K8" s="12">
+        <f>AA8*G8+AB8*H8+AC8*I8</f>
       </c>
       <c r="L8" s="3">
-        <f t="shared" si="6"/>
-        <v>898.16361883631293</v>
+        <f>J8*C8^K8</f>
       </c>
       <c r="M8" s="3">
         <v>0.6</v>
@@ -1671,8 +1572,7 @@
         <v>1</v>
       </c>
       <c r="P8" s="3">
-        <f t="shared" si="7"/>
-        <v>323.33890278107265</v>
+        <f>L8*M8*(1-N8) *O8</f>
       </c>
       <c r="Q8" s="3">
         <v>0.5</v>
@@ -1684,32 +1584,27 @@
         <v>1.5</v>
       </c>
       <c r="T8" s="3">
-        <f t="shared" si="8"/>
-        <v>1.5</v>
+        <f>AA8*Q8+AB8*R8+AC8*S8</f>
       </c>
       <c r="U8" s="3">
-        <f t="shared" si="0"/>
-        <v>485.00835417160897</v>
+        <f>P8*T8</f>
       </c>
       <c r="V8" s="3">
         <v>0.05</v>
       </c>
       <c r="W8" s="3">
-        <f t="shared" si="1"/>
-        <v>16.166945139053635</v>
+        <f>P8*V8</f>
       </c>
       <c r="X8" s="3">
-        <f t="shared" si="2"/>
-        <v>24.25041770858045</v>
+        <f>U8*V8</f>
       </c>
       <c r="Y8" s="3">
         <v>0</v>
       </c>
       <c r="Z8" s="3">
-        <f t="shared" si="3"/>
-        <v>40.417362847634081</v>
-      </c>
-      <c r="AA8" s="15">
+        <f>SUM(W8:Y8)</f>
+      </c>
+      <c r="AA8" s="13">
         <v>0</v>
       </c>
       <c r="AB8" s="14">
@@ -1737,45 +1632,42 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1">
         <v>1222</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="C9" s="3">
         <v>32169</v>
       </c>
-      <c r="D9" s="18">
-        <v>24.077999999999999</v>
-      </c>
-      <c r="E9" s="20">
-        <v>33.642000000000003</v>
-      </c>
-      <c r="F9" s="20">
-        <v>30.824000000000002</v>
-      </c>
-      <c r="G9" s="18">
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="H9" s="20">
+      <c r="D9" s="12">
+        <v>24.078</v>
+      </c>
+      <c r="E9" s="3">
+        <v>33.642</v>
+      </c>
+      <c r="F9" s="3">
+        <v>30.824</v>
+      </c>
+      <c r="G9" s="12">
+        <v>0.3852</v>
+      </c>
+      <c r="H9" s="3">
         <v>0.3574</v>
       </c>
-      <c r="I9" s="21">
-        <v>0.32490000000000002</v>
-      </c>
-      <c r="J9" s="18">
-        <f t="shared" si="4"/>
-        <v>30.824000000000002</v>
-      </c>
-      <c r="K9" s="18">
-        <f t="shared" si="5"/>
-        <v>0.32490000000000002</v>
+      <c r="I9" s="12">
+        <v>0.3249</v>
+      </c>
+      <c r="J9" s="12">
+        <f>AA9*D9+AB9*E9+AC9*F9</f>
+      </c>
+      <c r="K9" s="12">
+        <f>AA9*G9+AB9*H9+AC9*I9</f>
       </c>
       <c r="L9" s="3">
-        <f t="shared" si="6"/>
-        <v>898.16361883631293</v>
+        <f>J9*C9^K9</f>
       </c>
       <c r="M9" s="3">
         <v>0.6</v>
@@ -1787,8 +1679,7 @@
         <v>1</v>
       </c>
       <c r="P9" s="3">
-        <f t="shared" si="7"/>
-        <v>323.33890278107265</v>
+        <f>L9*M9*(1-N9) *O9</f>
       </c>
       <c r="Q9" s="3">
         <v>0.5</v>
@@ -1800,32 +1691,27 @@
         <v>1.5</v>
       </c>
       <c r="T9" s="3">
-        <f t="shared" si="8"/>
-        <v>1.5</v>
+        <f>AA9*Q9+AB9*R9+AC9*S9</f>
       </c>
       <c r="U9" s="3">
-        <f t="shared" si="0"/>
-        <v>485.00835417160897</v>
+        <f>P9*T9</f>
       </c>
       <c r="V9" s="3">
         <v>0.7</v>
       </c>
       <c r="W9" s="3">
-        <f t="shared" si="1"/>
-        <v>226.33723194675085</v>
+        <f>P9*V9</f>
       </c>
       <c r="X9" s="3">
-        <f t="shared" si="2"/>
-        <v>339.50584792012626</v>
+        <f>U9*V9</f>
       </c>
       <c r="Y9" s="3">
         <v>0</v>
       </c>
       <c r="Z9" s="3">
-        <f t="shared" si="3"/>
-        <v>565.84307986687713</v>
-      </c>
-      <c r="AA9" s="15">
+        <f>SUM(W9:Y9)</f>
+      </c>
+      <c r="AA9" s="13">
         <v>0</v>
       </c>
       <c r="AB9" s="14">
@@ -1853,45 +1739,42 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="10" spans="1:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1">
         <v>1230</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C10" s="3">
         <v>32169</v>
       </c>
-      <c r="D10" s="18">
-        <v>24.077999999999999</v>
-      </c>
-      <c r="E10" s="20">
-        <v>33.642000000000003</v>
-      </c>
-      <c r="F10" s="20">
-        <v>30.824000000000002</v>
-      </c>
-      <c r="G10" s="18">
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="H10" s="20">
+      <c r="D10" s="12">
+        <v>24.078</v>
+      </c>
+      <c r="E10" s="3">
+        <v>33.642</v>
+      </c>
+      <c r="F10" s="3">
+        <v>30.824</v>
+      </c>
+      <c r="G10" s="12">
+        <v>0.3852</v>
+      </c>
+      <c r="H10" s="3">
         <v>0.3574</v>
       </c>
-      <c r="I10" s="21">
-        <v>0.32490000000000002</v>
-      </c>
-      <c r="J10" s="18">
-        <f t="shared" si="4"/>
-        <v>30.824000000000002</v>
-      </c>
-      <c r="K10" s="18">
-        <f t="shared" si="5"/>
-        <v>0.32490000000000002</v>
+      <c r="I10" s="12">
+        <v>0.3249</v>
+      </c>
+      <c r="J10" s="12">
+        <f>AA10*D10+AB10*E10+AC10*F10</f>
+      </c>
+      <c r="K10" s="12">
+        <f>AA10*G10+AB10*H10+AC10*I10</f>
       </c>
       <c r="L10" s="3">
-        <f t="shared" si="6"/>
-        <v>898.16361883631293</v>
+        <f>J10*C10^K10</f>
       </c>
       <c r="M10" s="3">
         <v>0.6</v>
@@ -1903,8 +1786,7 @@
         <v>1</v>
       </c>
       <c r="P10" s="3">
-        <f t="shared" si="7"/>
-        <v>323.33890278107265</v>
+        <f>L10*M10*(1-N10) *O10</f>
       </c>
       <c r="Q10" s="3">
         <v>0.5</v>
@@ -1916,32 +1798,27 @@
         <v>1.5</v>
       </c>
       <c r="T10" s="3">
-        <f t="shared" si="8"/>
-        <v>1.5</v>
+        <f>AA10*Q10+AB10*R10+AC10*S10</f>
       </c>
       <c r="U10" s="3">
-        <f t="shared" si="0"/>
-        <v>485.00835417160897</v>
+        <f>P10*T10</f>
       </c>
       <c r="V10" s="3">
         <v>0.3</v>
       </c>
       <c r="W10" s="3">
-        <f t="shared" si="1"/>
-        <v>97.001670834321786</v>
+        <f>P10*V10</f>
       </c>
       <c r="X10" s="3">
-        <f t="shared" si="2"/>
-        <v>145.50250625148269</v>
+        <f>U10*V10</f>
       </c>
       <c r="Y10" s="3">
         <v>0</v>
       </c>
       <c r="Z10" s="3">
-        <f t="shared" si="3"/>
-        <v>242.50417708580449</v>
-      </c>
-      <c r="AA10" s="15">
+        <f>SUM(W10:Y10)</f>
+      </c>
+      <c r="AA10" s="13">
         <v>0</v>
       </c>
       <c r="AB10" s="14">
@@ -1969,45 +1846,42 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" spans="1:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1">
         <v>1241</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C11" s="3">
         <v>32169</v>
       </c>
-      <c r="D11" s="18">
-        <v>24.077999999999999</v>
-      </c>
-      <c r="E11" s="20">
-        <v>33.642000000000003</v>
-      </c>
-      <c r="F11" s="20">
-        <v>30.824000000000002</v>
-      </c>
-      <c r="G11" s="18">
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="H11" s="20">
+      <c r="D11" s="12">
+        <v>24.078</v>
+      </c>
+      <c r="E11" s="3">
+        <v>33.642</v>
+      </c>
+      <c r="F11" s="3">
+        <v>30.824</v>
+      </c>
+      <c r="G11" s="12">
+        <v>0.3852</v>
+      </c>
+      <c r="H11" s="3">
         <v>0.3574</v>
       </c>
-      <c r="I11" s="21">
-        <v>0.32490000000000002</v>
-      </c>
-      <c r="J11" s="18">
-        <f t="shared" si="4"/>
-        <v>30.824000000000002</v>
-      </c>
-      <c r="K11" s="18">
-        <f t="shared" si="5"/>
-        <v>0.32490000000000002</v>
+      <c r="I11" s="12">
+        <v>0.3249</v>
+      </c>
+      <c r="J11" s="12">
+        <f>AA11*D11+AB11*E11+AC11*F11</f>
+      </c>
+      <c r="K11" s="12">
+        <f>AA11*G11+AB11*H11+AC11*I11</f>
       </c>
       <c r="L11" s="3">
-        <f t="shared" si="6"/>
-        <v>898.16361883631293</v>
+        <f>J11*C11^K11</f>
       </c>
       <c r="M11" s="3">
         <v>0.6</v>
@@ -2019,8 +1893,7 @@
         <v>1</v>
       </c>
       <c r="P11" s="3">
-        <f t="shared" si="7"/>
-        <v>323.33890278107265</v>
+        <f>L11*M11*(1-N11) *O11</f>
       </c>
       <c r="Q11" s="3">
         <v>0.5</v>
@@ -2033,31 +1906,26 @@
       </c>
       <c r="T11" s="3">
         <f>AA11*Q11+AB11*R11+AC11*S11</f>
-        <v>1.5</v>
       </c>
       <c r="U11" s="3">
-        <f t="shared" si="0"/>
-        <v>485.00835417160897</v>
+        <f>P11*T11</f>
       </c>
       <c r="V11" s="3">
         <v>0.7</v>
       </c>
       <c r="W11" s="3">
-        <f t="shared" si="1"/>
-        <v>226.33723194675085</v>
+        <f>P11*V11</f>
       </c>
       <c r="X11" s="3">
-        <f t="shared" si="2"/>
-        <v>339.50584792012626</v>
+        <f>U11*V11</f>
       </c>
       <c r="Y11" s="3">
         <v>0</v>
       </c>
       <c r="Z11" s="3">
-        <f t="shared" si="3"/>
-        <v>565.84307986687713</v>
-      </c>
-      <c r="AA11" s="15">
+        <f>SUM(W11:Y11)</f>
+      </c>
+      <c r="AA11" s="13">
         <v>0</v>
       </c>
       <c r="AB11" s="14">
@@ -2085,45 +1953,42 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="12" spans="1:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1">
         <v>1242</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C12" s="3">
         <v>32169</v>
       </c>
-      <c r="D12" s="18">
-        <v>24.077999999999999</v>
-      </c>
-      <c r="E12" s="20">
-        <v>33.642000000000003</v>
-      </c>
-      <c r="F12" s="20">
-        <v>30.824000000000002</v>
-      </c>
-      <c r="G12" s="18">
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="H12" s="20">
+      <c r="D12" s="12">
+        <v>24.078</v>
+      </c>
+      <c r="E12" s="3">
+        <v>33.642</v>
+      </c>
+      <c r="F12" s="3">
+        <v>30.824</v>
+      </c>
+      <c r="G12" s="12">
+        <v>0.3852</v>
+      </c>
+      <c r="H12" s="3">
         <v>0.3574</v>
       </c>
-      <c r="I12" s="21">
-        <v>0.32490000000000002</v>
-      </c>
-      <c r="J12" s="18">
-        <f t="shared" si="4"/>
-        <v>30.824000000000002</v>
-      </c>
-      <c r="K12" s="18">
-        <f t="shared" si="5"/>
-        <v>0.32490000000000002</v>
+      <c r="I12" s="12">
+        <v>0.3249</v>
+      </c>
+      <c r="J12" s="12">
+        <f>AA12*D12+AB12*E12+AC12*F12</f>
+      </c>
+      <c r="K12" s="12">
+        <f>AA12*G12+AB12*H12+AC12*I12</f>
       </c>
       <c r="L12" s="3">
-        <f t="shared" si="6"/>
-        <v>898.16361883631293</v>
+        <f>J12*C12^K12</f>
       </c>
       <c r="M12" s="3">
         <v>0.6</v>
@@ -2135,8 +2000,7 @@
         <v>1</v>
       </c>
       <c r="P12" s="3">
-        <f t="shared" si="7"/>
-        <v>323.33890278107265</v>
+        <f>L12*M12*(1-N12) *O12</f>
       </c>
       <c r="Q12" s="3">
         <v>0.5</v>
@@ -2148,32 +2012,27 @@
         <v>1.5</v>
       </c>
       <c r="T12" s="3">
-        <f t="shared" si="8"/>
-        <v>1.5</v>
+        <f>AA12*Q12+AB12*R12+AC12*S12</f>
       </c>
       <c r="U12" s="3">
-        <f t="shared" si="0"/>
-        <v>485.00835417160897</v>
+        <f>P12*T12</f>
       </c>
       <c r="V12" s="3">
         <v>0.7</v>
       </c>
       <c r="W12" s="3">
-        <f t="shared" si="1"/>
-        <v>226.33723194675085</v>
+        <f>P12*V12</f>
       </c>
       <c r="X12" s="3">
-        <f t="shared" si="2"/>
-        <v>339.50584792012626</v>
+        <f>U12*V12</f>
       </c>
       <c r="Y12" s="3">
         <v>0</v>
       </c>
       <c r="Z12" s="3">
-        <f t="shared" si="3"/>
-        <v>565.84307986687713</v>
-      </c>
-      <c r="AA12" s="15">
+        <f>SUM(W12:Y12)</f>
+      </c>
+      <c r="AA12" s="13">
         <v>0</v>
       </c>
       <c r="AB12" s="14">
@@ -2201,45 +2060,42 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="13" spans="1:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1">
         <v>1310</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C13" s="3">
         <v>32169</v>
       </c>
-      <c r="D13" s="18">
-        <v>24.077999999999999</v>
-      </c>
-      <c r="E13" s="20">
-        <v>33.642000000000003</v>
-      </c>
-      <c r="F13" s="20">
-        <v>30.824000000000002</v>
-      </c>
-      <c r="G13" s="18">
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="H13" s="20">
+      <c r="D13" s="12">
+        <v>24.078</v>
+      </c>
+      <c r="E13" s="3">
+        <v>33.642</v>
+      </c>
+      <c r="F13" s="3">
+        <v>30.824</v>
+      </c>
+      <c r="G13" s="12">
+        <v>0.3852</v>
+      </c>
+      <c r="H13" s="3">
         <v>0.3574</v>
       </c>
-      <c r="I13" s="21">
-        <v>0.32490000000000002</v>
-      </c>
-      <c r="J13" s="18">
-        <f t="shared" si="4"/>
-        <v>30.824000000000002</v>
-      </c>
-      <c r="K13" s="18">
-        <f t="shared" si="5"/>
-        <v>0.32490000000000002</v>
+      <c r="I13" s="12">
+        <v>0.3249</v>
+      </c>
+      <c r="J13" s="12">
+        <f>AA13*D13+AB13*E13+AC13*F13</f>
+      </c>
+      <c r="K13" s="12">
+        <f>AA13*G13+AB13*H13+AC13*I13</f>
       </c>
       <c r="L13" s="3">
-        <f t="shared" si="6"/>
-        <v>898.16361883631293</v>
+        <f>J13*C13^K13</f>
       </c>
       <c r="M13" s="3">
         <v>0.6</v>
@@ -2251,8 +2107,7 @@
         <v>1</v>
       </c>
       <c r="P13" s="3">
-        <f t="shared" si="7"/>
-        <v>323.33890278107265</v>
+        <f>L13*M13*(1-N13) *O13</f>
       </c>
       <c r="Q13" s="3">
         <v>0.5</v>
@@ -2264,32 +2119,27 @@
         <v>1.5</v>
       </c>
       <c r="T13" s="3">
-        <f t="shared" si="8"/>
-        <v>1.5</v>
+        <f>AA13*Q13+AB13*R13+AC13*S13</f>
       </c>
       <c r="U13" s="3">
-        <f t="shared" si="0"/>
-        <v>485.00835417160897</v>
+        <f>P13*T13</f>
       </c>
       <c r="V13" s="3">
         <v>0.01</v>
       </c>
       <c r="W13" s="3">
-        <f t="shared" si="1"/>
-        <v>3.2333890278107265</v>
+        <f>P13*V13</f>
       </c>
       <c r="X13" s="3">
-        <f t="shared" si="2"/>
-        <v>4.8500835417160895</v>
+        <f>U13*V13</f>
       </c>
       <c r="Y13" s="3">
         <v>0</v>
       </c>
       <c r="Z13" s="3">
-        <f t="shared" si="3"/>
-        <v>8.0834725695268155</v>
-      </c>
-      <c r="AA13" s="15">
+        <f>SUM(W13:Y13)</f>
+      </c>
+      <c r="AA13" s="13">
         <v>0</v>
       </c>
       <c r="AB13" s="14">
@@ -2317,45 +2167,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1">
         <v>1320</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="C14" s="3">
         <v>32169</v>
       </c>
-      <c r="D14" s="18">
-        <v>24.077999999999999</v>
-      </c>
-      <c r="E14" s="20">
-        <v>33.642000000000003</v>
-      </c>
-      <c r="F14" s="20">
-        <v>30.824000000000002</v>
-      </c>
-      <c r="G14" s="18">
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="H14" s="20">
+      <c r="D14" s="12">
+        <v>24.078</v>
+      </c>
+      <c r="E14" s="3">
+        <v>33.642</v>
+      </c>
+      <c r="F14" s="3">
+        <v>30.824</v>
+      </c>
+      <c r="G14" s="12">
+        <v>0.3852</v>
+      </c>
+      <c r="H14" s="3">
         <v>0.3574</v>
       </c>
-      <c r="I14" s="21">
-        <v>0.32490000000000002</v>
-      </c>
-      <c r="J14" s="18">
-        <f t="shared" si="4"/>
-        <v>30.824000000000002</v>
-      </c>
-      <c r="K14" s="18">
-        <f t="shared" si="5"/>
-        <v>0.32490000000000002</v>
+      <c r="I14" s="12">
+        <v>0.3249</v>
+      </c>
+      <c r="J14" s="12">
+        <f>AA14*D14+AB14*E14+AC14*F14</f>
+      </c>
+      <c r="K14" s="12">
+        <f>AA14*G14+AB14*H14+AC14*I14</f>
       </c>
       <c r="L14" s="3">
-        <f t="shared" si="6"/>
-        <v>898.16361883631293</v>
+        <f>J14*C14^K14</f>
       </c>
       <c r="M14" s="3">
         <v>0.6</v>
@@ -2367,8 +2214,7 @@
         <v>1</v>
       </c>
       <c r="P14" s="3">
-        <f t="shared" si="7"/>
-        <v>323.33890278107265</v>
+        <f>L14*M14*(1-N14) *O14</f>
       </c>
       <c r="Q14" s="3">
         <v>0.5</v>
@@ -2380,32 +2226,27 @@
         <v>1.5</v>
       </c>
       <c r="T14" s="3">
-        <f t="shared" si="8"/>
-        <v>1.5</v>
+        <f>AA14*Q14+AB14*R14+AC14*S14</f>
       </c>
       <c r="U14" s="3">
-        <f t="shared" si="0"/>
-        <v>485.00835417160897</v>
+        <f>P14*T14</f>
       </c>
       <c r="V14" s="3">
         <v>0.01</v>
       </c>
       <c r="W14" s="3">
-        <f t="shared" si="1"/>
-        <v>3.2333890278107265</v>
+        <f>P14*V14</f>
       </c>
       <c r="X14" s="3">
-        <f t="shared" si="2"/>
-        <v>4.8500835417160895</v>
+        <f>U14*V14</f>
       </c>
       <c r="Y14" s="3">
         <v>0</v>
       </c>
       <c r="Z14" s="3">
-        <f t="shared" si="3"/>
-        <v>8.0834725695268155</v>
-      </c>
-      <c r="AA14" s="15">
+        <f>SUM(W14:Y14)</f>
+      </c>
+      <c r="AA14" s="13">
         <v>0</v>
       </c>
       <c r="AB14" s="14">
@@ -2433,45 +2274,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="1">
         <v>1330</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="C15" s="3">
         <v>32169</v>
       </c>
-      <c r="D15" s="18">
-        <v>24.077999999999999</v>
-      </c>
-      <c r="E15" s="20">
-        <v>33.642000000000003</v>
-      </c>
-      <c r="F15" s="20">
-        <v>30.824000000000002</v>
-      </c>
-      <c r="G15" s="18">
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="H15" s="20">
+      <c r="D15" s="12">
+        <v>24.078</v>
+      </c>
+      <c r="E15" s="3">
+        <v>33.642</v>
+      </c>
+      <c r="F15" s="3">
+        <v>30.824</v>
+      </c>
+      <c r="G15" s="12">
+        <v>0.3852</v>
+      </c>
+      <c r="H15" s="3">
         <v>0.3574</v>
       </c>
-      <c r="I15" s="21">
-        <v>0.32490000000000002</v>
-      </c>
-      <c r="J15" s="18">
-        <f t="shared" si="4"/>
-        <v>27.451000000000001</v>
-      </c>
-      <c r="K15" s="18">
-        <f t="shared" si="5"/>
-        <v>0.35504999999999998</v>
+      <c r="I15" s="12">
+        <v>0.3249</v>
+      </c>
+      <c r="J15" s="12">
+        <f>AA15*D15+AB15*E15+AC15*F15</f>
+      </c>
+      <c r="K15" s="12">
+        <f>AA15*G15+AB15*H15+AC15*I15</f>
       </c>
       <c r="L15" s="3">
-        <f t="shared" si="6"/>
-        <v>1093.7646315249181</v>
+        <f>J15*C15^K15</f>
       </c>
       <c r="M15" s="3">
         <v>0.6</v>
@@ -2483,8 +2321,7 @@
         <v>1</v>
       </c>
       <c r="P15" s="3">
-        <f t="shared" si="7"/>
-        <v>393.75526734897045</v>
+        <f>L15*M15*(1-N15) *O15</f>
       </c>
       <c r="Q15" s="3">
         <v>0.5</v>
@@ -2496,32 +2333,27 @@
         <v>1.5</v>
       </c>
       <c r="T15" s="3">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f>AA15*Q15+AB15*R15+AC15*S15</f>
       </c>
       <c r="U15" s="3">
-        <f t="shared" si="0"/>
-        <v>393.75526734897045</v>
+        <f>P15*T15</f>
       </c>
       <c r="V15" s="3">
         <v>0.4</v>
       </c>
       <c r="W15" s="3">
-        <f t="shared" si="1"/>
-        <v>157.5021069395882</v>
+        <f>P15*V15</f>
       </c>
       <c r="X15" s="3">
-        <f t="shared" si="2"/>
-        <v>157.5021069395882</v>
+        <f>U15*V15</f>
       </c>
       <c r="Y15" s="3">
         <v>0</v>
       </c>
       <c r="Z15" s="3">
-        <f t="shared" si="3"/>
-        <v>315.0042138791764</v>
-      </c>
-      <c r="AA15" s="15">
+        <f>SUM(W15:Y15)</f>
+      </c>
+      <c r="AA15" s="13">
         <v>0.5</v>
       </c>
       <c r="AB15" s="14">
@@ -2549,45 +2381,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="1">
         <v>1410</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="C16" s="3">
         <v>32169</v>
       </c>
-      <c r="D16" s="18">
-        <v>24.077999999999999</v>
-      </c>
-      <c r="E16" s="20">
-        <v>33.642000000000003</v>
-      </c>
-      <c r="F16" s="20">
-        <v>30.824000000000002</v>
-      </c>
-      <c r="G16" s="18">
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="H16" s="20">
+      <c r="D16" s="12">
+        <v>24.078</v>
+      </c>
+      <c r="E16" s="3">
+        <v>33.642</v>
+      </c>
+      <c r="F16" s="3">
+        <v>30.824</v>
+      </c>
+      <c r="G16" s="12">
+        <v>0.3852</v>
+      </c>
+      <c r="H16" s="3">
         <v>0.3574</v>
       </c>
-      <c r="I16" s="21">
-        <v>0.32490000000000002</v>
-      </c>
-      <c r="J16" s="18">
-        <f t="shared" si="4"/>
-        <v>24.077999999999999</v>
-      </c>
-      <c r="K16" s="18">
-        <f t="shared" si="5"/>
-        <v>0.38519999999999999</v>
+      <c r="I16" s="12">
+        <v>0.3249</v>
+      </c>
+      <c r="J16" s="12">
+        <f>AA16*D16+AB16*E16+AC16*F16</f>
+      </c>
+      <c r="K16" s="12">
+        <f>AA16*G16+AB16*H16+AC16*I16</f>
       </c>
       <c r="L16" s="3">
-        <f t="shared" si="6"/>
-        <v>1311.85356095887</v>
+        <f>J16*C16^K16</f>
       </c>
       <c r="M16" s="3">
         <v>0.6</v>
@@ -2599,8 +2428,7 @@
         <v>1</v>
       </c>
       <c r="P16" s="3">
-        <f t="shared" si="7"/>
-        <v>472.26728194519319</v>
+        <f>L16*M16*(1-N16) *O16</f>
       </c>
       <c r="Q16" s="3">
         <v>0.5</v>
@@ -2612,32 +2440,27 @@
         <v>1.5</v>
       </c>
       <c r="T16" s="3">
-        <f t="shared" si="8"/>
-        <v>0.5</v>
+        <f>AA16*Q16+AB16*R16+AC16*S16</f>
       </c>
       <c r="U16" s="3">
-        <f t="shared" si="0"/>
-        <v>236.1336409725966</v>
+        <f>P16*T16</f>
       </c>
       <c r="V16" s="3">
         <v>0.1</v>
       </c>
       <c r="W16" s="3">
-        <f t="shared" si="1"/>
-        <v>47.226728194519325</v>
+        <f>P16*V16</f>
       </c>
       <c r="X16" s="3">
-        <f t="shared" si="2"/>
-        <v>23.613364097259662</v>
+        <f>U16*V16</f>
       </c>
       <c r="Y16" s="3">
         <v>0</v>
       </c>
       <c r="Z16" s="3">
-        <f t="shared" si="3"/>
-        <v>70.840092291778987</v>
-      </c>
-      <c r="AA16" s="15">
+        <f>SUM(W16:Y16)</f>
+      </c>
+      <c r="AA16" s="13">
         <v>1</v>
       </c>
       <c r="AB16" s="14">
@@ -2665,45 +2488,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="1">
         <v>1421</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C17" s="3">
         <v>32169</v>
       </c>
-      <c r="D17" s="18">
-        <v>24.077999999999999</v>
-      </c>
-      <c r="E17" s="20">
-        <v>33.642000000000003</v>
-      </c>
-      <c r="F17" s="20">
-        <v>30.824000000000002</v>
-      </c>
-      <c r="G17" s="18">
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="H17" s="20">
+      <c r="D17" s="12">
+        <v>24.078</v>
+      </c>
+      <c r="E17" s="3">
+        <v>33.642</v>
+      </c>
+      <c r="F17" s="3">
+        <v>30.824</v>
+      </c>
+      <c r="G17" s="12">
+        <v>0.3852</v>
+      </c>
+      <c r="H17" s="3">
         <v>0.3574</v>
       </c>
-      <c r="I17" s="21">
-        <v>0.32490000000000002</v>
-      </c>
-      <c r="J17" s="18">
-        <f t="shared" si="4"/>
-        <v>24.077999999999999</v>
-      </c>
-      <c r="K17" s="18">
-        <f t="shared" si="5"/>
-        <v>0.38519999999999999</v>
+      <c r="I17" s="12">
+        <v>0.3249</v>
+      </c>
+      <c r="J17" s="12">
+        <f>AA17*D17+AB17*E17+AC17*F17</f>
+      </c>
+      <c r="K17" s="12">
+        <f>AA17*G17+AB17*H17+AC17*I17</f>
       </c>
       <c r="L17" s="3">
-        <f t="shared" si="6"/>
-        <v>1311.85356095887</v>
+        <f>J17*C17^K17</f>
       </c>
       <c r="M17" s="3">
         <v>0.6</v>
@@ -2715,8 +2535,7 @@
         <v>1</v>
       </c>
       <c r="P17" s="3">
-        <f t="shared" si="7"/>
-        <v>472.26728194519319</v>
+        <f>L17*M17*(1-N17) *O17</f>
       </c>
       <c r="Q17" s="3">
         <v>0.5</v>
@@ -2728,32 +2547,27 @@
         <v>1.5</v>
       </c>
       <c r="T17" s="3">
-        <f t="shared" si="8"/>
-        <v>0.5</v>
+        <f>AA17*Q17+AB17*R17+AC17*S17</f>
       </c>
       <c r="U17" s="3">
-        <f t="shared" si="0"/>
-        <v>236.1336409725966</v>
+        <f>P17*T17</f>
       </c>
       <c r="V17" s="3">
         <v>0.1</v>
       </c>
       <c r="W17" s="3">
-        <f t="shared" si="1"/>
-        <v>47.226728194519325</v>
+        <f>P17*V17</f>
       </c>
       <c r="X17" s="3">
-        <f t="shared" si="2"/>
-        <v>23.613364097259662</v>
+        <f>U17*V17</f>
       </c>
       <c r="Y17" s="3">
         <v>0</v>
       </c>
       <c r="Z17" s="3">
-        <f t="shared" si="3"/>
-        <v>70.840092291778987</v>
-      </c>
-      <c r="AA17" s="15">
+        <f>SUM(W17:Y17)</f>
+      </c>
+      <c r="AA17" s="13">
         <v>1</v>
       </c>
       <c r="AB17" s="14">
@@ -2781,45 +2595,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="1">
         <v>1422</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C18" s="3">
         <v>32169</v>
       </c>
-      <c r="D18" s="18">
-        <v>24.077999999999999</v>
-      </c>
-      <c r="E18" s="20">
-        <v>33.642000000000003</v>
-      </c>
-      <c r="F18" s="20">
-        <v>30.824000000000002</v>
-      </c>
-      <c r="G18" s="18">
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="H18" s="20">
+      <c r="D18" s="12">
+        <v>24.078</v>
+      </c>
+      <c r="E18" s="3">
+        <v>33.642</v>
+      </c>
+      <c r="F18" s="3">
+        <v>30.824</v>
+      </c>
+      <c r="G18" s="12">
+        <v>0.3852</v>
+      </c>
+      <c r="H18" s="3">
         <v>0.3574</v>
       </c>
-      <c r="I18" s="21">
-        <v>0.32490000000000002</v>
-      </c>
-      <c r="J18" s="18">
-        <f t="shared" si="4"/>
-        <v>24.077999999999999</v>
-      </c>
-      <c r="K18" s="18">
-        <f t="shared" si="5"/>
-        <v>0.38519999999999999</v>
+      <c r="I18" s="12">
+        <v>0.3249</v>
+      </c>
+      <c r="J18" s="12">
+        <f>AA18*D18+AB18*E18+AC18*F18</f>
+      </c>
+      <c r="K18" s="12">
+        <f>AA18*G18+AB18*H18+AC18*I18</f>
       </c>
       <c r="L18" s="3">
-        <f t="shared" si="6"/>
-        <v>1311.85356095887</v>
+        <f>J18*C18^K18</f>
       </c>
       <c r="M18" s="3">
         <v>0.6</v>
@@ -2831,8 +2642,7 @@
         <v>1</v>
       </c>
       <c r="P18" s="3">
-        <f t="shared" si="7"/>
-        <v>472.26728194519319</v>
+        <f>L18*M18*(1-N18) *O18</f>
       </c>
       <c r="Q18" s="3">
         <v>0.5</v>
@@ -2844,32 +2654,27 @@
         <v>1.5</v>
       </c>
       <c r="T18" s="3">
-        <f t="shared" si="8"/>
-        <v>0.5</v>
+        <f>AA18*Q18+AB18*R18+AC18*S18</f>
       </c>
       <c r="U18" s="3">
-        <f t="shared" si="0"/>
-        <v>236.1336409725966</v>
+        <f>P18*T18</f>
       </c>
       <c r="V18" s="3">
         <v>0.3</v>
       </c>
       <c r="W18" s="3">
-        <f t="shared" si="1"/>
-        <v>141.68018458355795</v>
+        <f>P18*V18</f>
       </c>
       <c r="X18" s="3">
-        <f t="shared" si="2"/>
-        <v>70.840092291778973</v>
+        <f>U18*V18</f>
       </c>
       <c r="Y18" s="3">
         <v>0</v>
       </c>
       <c r="Z18" s="3">
-        <f t="shared" si="3"/>
-        <v>212.52027687533692</v>
-      </c>
-      <c r="AA18" s="15">
+        <f>SUM(W18:Y18)</f>
+      </c>
+      <c r="AA18" s="13">
         <v>1</v>
       </c>
       <c r="AB18" s="14">
@@ -2897,45 +2702,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="1">
         <v>2110</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="C19" s="3">
         <v>32169</v>
       </c>
-      <c r="D19" s="18">
-        <v>24.077999999999999</v>
-      </c>
-      <c r="E19" s="20">
-        <v>33.642000000000003</v>
-      </c>
-      <c r="F19" s="20">
-        <v>30.824000000000002</v>
-      </c>
-      <c r="G19" s="18">
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="H19" s="20">
+      <c r="D19" s="12">
+        <v>24.078</v>
+      </c>
+      <c r="E19" s="3">
+        <v>33.642</v>
+      </c>
+      <c r="F19" s="3">
+        <v>30.824</v>
+      </c>
+      <c r="G19" s="12">
+        <v>0.3852</v>
+      </c>
+      <c r="H19" s="3">
         <v>0.3574</v>
       </c>
-      <c r="I19" s="21">
-        <v>0.32490000000000002</v>
-      </c>
-      <c r="J19" s="18">
-        <f t="shared" si="4"/>
-        <v>24.077999999999999</v>
-      </c>
-      <c r="K19" s="18">
-        <f t="shared" si="5"/>
-        <v>0.38519999999999999</v>
+      <c r="I19" s="12">
+        <v>0.3249</v>
+      </c>
+      <c r="J19" s="12">
+        <f>AA19*D19+AB19*E19+AC19*F19</f>
+      </c>
+      <c r="K19" s="12">
+        <f>AA19*G19+AB19*H19+AC19*I19</f>
       </c>
       <c r="L19" s="3">
-        <f t="shared" si="6"/>
-        <v>1311.85356095887</v>
+        <f>J19*C19^K19</f>
       </c>
       <c r="M19" s="3">
         <v>0.6</v>
@@ -2947,8 +2749,7 @@
         <v>1</v>
       </c>
       <c r="P19" s="3">
-        <f t="shared" si="7"/>
-        <v>472.26728194519319</v>
+        <f>L19*M19*(1-N19) *O19</f>
       </c>
       <c r="Q19" s="3">
         <v>0.5</v>
@@ -2960,33 +2761,27 @@
         <v>1.5</v>
       </c>
       <c r="T19" s="3">
-        <f t="shared" si="8"/>
-        <v>0.5</v>
+        <f>AA19*Q19+AB19*R19+AC19*S19</f>
       </c>
       <c r="U19" s="3">
-        <f t="shared" si="0"/>
-        <v>236.1336409725966</v>
+        <f>P19*T19</f>
       </c>
       <c r="V19" s="3">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07</v>
       </c>
       <c r="W19" s="3">
-        <f t="shared" si="1"/>
-        <v>33.058709736163529</v>
+        <f>P19*V19</f>
       </c>
       <c r="X19" s="3">
-        <f t="shared" si="2"/>
-        <v>16.529354868081764</v>
+        <f>U19*V19</f>
       </c>
       <c r="Y19" s="3">
-        <f t="shared" ref="Y19:Y29" si="9">0.1015744</f>
-        <v>0.1015744</v>
+        <f>0.1015744</f>
       </c>
       <c r="Z19" s="3">
-        <f t="shared" si="3"/>
-        <v>49.689639004245286</v>
-      </c>
-      <c r="AA19" s="15">
+        <f>SUM(W19:Y19)</f>
+      </c>
+      <c r="AA19" s="13">
         <v>1</v>
       </c>
       <c r="AB19" s="14">
@@ -3014,45 +2809,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="1">
         <v>2120</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="C20" s="3">
         <v>32169</v>
       </c>
-      <c r="D20" s="18">
-        <v>24.077999999999999</v>
-      </c>
-      <c r="E20" s="20">
-        <v>33.642000000000003</v>
-      </c>
-      <c r="F20" s="20">
-        <v>30.824000000000002</v>
-      </c>
-      <c r="G20" s="18">
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="H20" s="20">
+      <c r="D20" s="12">
+        <v>24.078</v>
+      </c>
+      <c r="E20" s="3">
+        <v>33.642</v>
+      </c>
+      <c r="F20" s="3">
+        <v>30.824</v>
+      </c>
+      <c r="G20" s="12">
+        <v>0.3852</v>
+      </c>
+      <c r="H20" s="3">
         <v>0.3574</v>
       </c>
-      <c r="I20" s="21">
-        <v>0.32490000000000002</v>
-      </c>
-      <c r="J20" s="18">
-        <f t="shared" si="4"/>
-        <v>24.077999999999999</v>
-      </c>
-      <c r="K20" s="18">
-        <f t="shared" si="5"/>
-        <v>0.38519999999999999</v>
+      <c r="I20" s="12">
+        <v>0.3249</v>
+      </c>
+      <c r="J20" s="12">
+        <f>AA20*D20+AB20*E20+AC20*F20</f>
+      </c>
+      <c r="K20" s="12">
+        <f>AA20*G20+AB20*H20+AC20*I20</f>
       </c>
       <c r="L20" s="3">
-        <f t="shared" si="6"/>
-        <v>1311.85356095887</v>
+        <f>J20*C20^K20</f>
       </c>
       <c r="M20" s="3">
         <v>0.6</v>
@@ -3064,8 +2856,7 @@
         <v>1</v>
       </c>
       <c r="P20" s="3">
-        <f t="shared" si="7"/>
-        <v>472.26728194519319</v>
+        <f>L20*M20*(1-N20) *O20</f>
       </c>
       <c r="Q20" s="3">
         <v>0.5</v>
@@ -3077,33 +2868,27 @@
         <v>1.5</v>
       </c>
       <c r="T20" s="3">
-        <f t="shared" si="8"/>
-        <v>0.5</v>
+        <f>AA20*Q20+AB20*R20+AC20*S20</f>
       </c>
       <c r="U20" s="3">
-        <f t="shared" si="0"/>
-        <v>236.1336409725966</v>
+        <f>P20*T20</f>
       </c>
       <c r="V20" s="3">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07</v>
       </c>
       <c r="W20" s="3">
-        <f t="shared" si="1"/>
-        <v>33.058709736163529</v>
+        <f>P20*V20</f>
       </c>
       <c r="X20" s="3">
-        <f t="shared" si="2"/>
-        <v>16.529354868081764</v>
+        <f>U20*V20</f>
       </c>
       <c r="Y20" s="3">
-        <f t="shared" si="9"/>
-        <v>0.1015744</v>
+        <f>0.1015744</f>
       </c>
       <c r="Z20" s="3">
-        <f t="shared" si="3"/>
-        <v>49.689639004245286</v>
-      </c>
-      <c r="AA20" s="15">
+        <f>SUM(W20:Y20)</f>
+      </c>
+      <c r="AA20" s="13">
         <v>1</v>
       </c>
       <c r="AB20" s="14">
@@ -3131,45 +2916,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="1">
         <v>2130</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C21" s="3">
         <v>32169</v>
       </c>
-      <c r="D21" s="18">
-        <v>24.077999999999999</v>
-      </c>
-      <c r="E21" s="20">
-        <v>33.642000000000003</v>
-      </c>
-      <c r="F21" s="20">
-        <v>30.824000000000002</v>
-      </c>
-      <c r="G21" s="18">
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="H21" s="20">
+      <c r="D21" s="12">
+        <v>24.078</v>
+      </c>
+      <c r="E21" s="3">
+        <v>33.642</v>
+      </c>
+      <c r="F21" s="3">
+        <v>30.824</v>
+      </c>
+      <c r="G21" s="12">
+        <v>0.3852</v>
+      </c>
+      <c r="H21" s="3">
         <v>0.3574</v>
       </c>
-      <c r="I21" s="21">
-        <v>0.32490000000000002</v>
-      </c>
-      <c r="J21" s="18">
-        <f t="shared" si="4"/>
-        <v>24.077999999999999</v>
-      </c>
-      <c r="K21" s="18">
-        <f t="shared" si="5"/>
-        <v>0.38519999999999999</v>
+      <c r="I21" s="12">
+        <v>0.3249</v>
+      </c>
+      <c r="J21" s="12">
+        <f>AA21*D21+AB21*E21+AC21*F21</f>
+      </c>
+      <c r="K21" s="12">
+        <f>AA21*G21+AB21*H21+AC21*I21</f>
       </c>
       <c r="L21" s="3">
-        <f t="shared" si="6"/>
-        <v>1311.85356095887</v>
+        <f>J21*C21^K21</f>
       </c>
       <c r="M21" s="3">
         <v>0.6</v>
@@ -3181,8 +2963,7 @@
         <v>1</v>
       </c>
       <c r="P21" s="3">
-        <f t="shared" si="7"/>
-        <v>472.26728194519319</v>
+        <f>L21*M21*(1-N21) *O21</f>
       </c>
       <c r="Q21" s="3">
         <v>0.5</v>
@@ -3194,33 +2975,27 @@
         <v>1.5</v>
       </c>
       <c r="T21" s="3">
-        <f t="shared" si="8"/>
-        <v>0.5</v>
+        <f>AA21*Q21+AB21*R21+AC21*S21</f>
       </c>
       <c r="U21" s="3">
-        <f t="shared" si="0"/>
-        <v>236.1336409725966</v>
+        <f>P21*T21</f>
       </c>
       <c r="V21" s="3">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07</v>
       </c>
       <c r="W21" s="3">
-        <f t="shared" si="1"/>
-        <v>33.058709736163529</v>
+        <f>P21*V21</f>
       </c>
       <c r="X21" s="3">
-        <f t="shared" si="2"/>
-        <v>16.529354868081764</v>
+        <f>U21*V21</f>
       </c>
       <c r="Y21" s="3">
-        <f t="shared" si="9"/>
-        <v>0.1015744</v>
+        <f>0.1015744</f>
       </c>
       <c r="Z21" s="3">
-        <f t="shared" si="3"/>
-        <v>49.689639004245286</v>
-      </c>
-      <c r="AA21" s="15">
+        <f>SUM(W21:Y21)</f>
+      </c>
+      <c r="AA21" s="13">
         <v>1</v>
       </c>
       <c r="AB21" s="14">
@@ -3248,45 +3023,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="1">
         <v>2210</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="C22" s="3">
         <v>32169</v>
       </c>
-      <c r="D22" s="18">
-        <v>24.077999999999999</v>
-      </c>
-      <c r="E22" s="20">
-        <v>33.642000000000003</v>
-      </c>
-      <c r="F22" s="20">
-        <v>30.824000000000002</v>
-      </c>
-      <c r="G22" s="18">
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="H22" s="20">
+      <c r="D22" s="12">
+        <v>24.078</v>
+      </c>
+      <c r="E22" s="3">
+        <v>33.642</v>
+      </c>
+      <c r="F22" s="3">
+        <v>30.824</v>
+      </c>
+      <c r="G22" s="12">
+        <v>0.3852</v>
+      </c>
+      <c r="H22" s="3">
         <v>0.3574</v>
       </c>
-      <c r="I22" s="21">
-        <v>0.32490000000000002</v>
-      </c>
-      <c r="J22" s="18">
-        <f t="shared" si="4"/>
-        <v>24.077999999999999</v>
-      </c>
-      <c r="K22" s="18">
-        <f t="shared" si="5"/>
-        <v>0.38519999999999999</v>
+      <c r="I22" s="12">
+        <v>0.3249</v>
+      </c>
+      <c r="J22" s="12">
+        <f>AA22*D22+AB22*E22+AC22*F22</f>
+      </c>
+      <c r="K22" s="12">
+        <f>AA22*G22+AB22*H22+AC22*I22</f>
       </c>
       <c r="L22" s="3">
-        <f t="shared" si="6"/>
-        <v>1311.85356095887</v>
+        <f>J22*C22^K22</f>
       </c>
       <c r="M22" s="3">
         <v>0.6</v>
@@ -3298,8 +3070,7 @@
         <v>1</v>
       </c>
       <c r="P22" s="3">
-        <f t="shared" si="7"/>
-        <v>472.26728194519319</v>
+        <f>L22*M22*(1-N22) *O22</f>
       </c>
       <c r="Q22" s="3">
         <v>0.5</v>
@@ -3311,33 +3082,27 @@
         <v>1.5</v>
       </c>
       <c r="T22" s="3">
-        <f t="shared" si="8"/>
-        <v>0.5</v>
+        <f>AA22*Q22+AB22*R22+AC22*S22</f>
       </c>
       <c r="U22" s="3">
-        <f t="shared" si="0"/>
-        <v>236.1336409725966</v>
+        <f>P22*T22</f>
       </c>
       <c r="V22" s="3">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07</v>
       </c>
       <c r="W22" s="3">
-        <f t="shared" si="1"/>
-        <v>33.058709736163529</v>
+        <f>P22*V22</f>
       </c>
       <c r="X22" s="3">
-        <f t="shared" si="2"/>
-        <v>16.529354868081764</v>
+        <f>U22*V22</f>
       </c>
       <c r="Y22" s="3">
-        <f t="shared" si="9"/>
-        <v>0.1015744</v>
+        <f>0.1015744</f>
       </c>
       <c r="Z22" s="3">
-        <f t="shared" si="3"/>
-        <v>49.689639004245286</v>
-      </c>
-      <c r="AA22" s="15">
+        <f>SUM(W22:Y22)</f>
+      </c>
+      <c r="AA22" s="13">
         <v>1</v>
       </c>
       <c r="AB22" s="14">
@@ -3365,45 +3130,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="1">
         <v>2220</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="C23" s="3">
         <v>32169</v>
       </c>
-      <c r="D23" s="18">
-        <v>24.077999999999999</v>
-      </c>
-      <c r="E23" s="20">
-        <v>33.642000000000003</v>
-      </c>
-      <c r="F23" s="20">
-        <v>30.824000000000002</v>
-      </c>
-      <c r="G23" s="18">
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="H23" s="20">
+      <c r="D23" s="12">
+        <v>24.078</v>
+      </c>
+      <c r="E23" s="3">
+        <v>33.642</v>
+      </c>
+      <c r="F23" s="3">
+        <v>30.824</v>
+      </c>
+      <c r="G23" s="12">
+        <v>0.3852</v>
+      </c>
+      <c r="H23" s="3">
         <v>0.3574</v>
       </c>
-      <c r="I23" s="21">
-        <v>0.32490000000000002</v>
-      </c>
-      <c r="J23" s="18">
-        <f t="shared" si="4"/>
-        <v>24.077999999999999</v>
-      </c>
-      <c r="K23" s="18">
-        <f t="shared" si="5"/>
-        <v>0.38519999999999999</v>
+      <c r="I23" s="12">
+        <v>0.3249</v>
+      </c>
+      <c r="J23" s="12">
+        <f>AA23*D23+AB23*E23+AC23*F23</f>
+      </c>
+      <c r="K23" s="12">
+        <f>AA23*G23+AB23*H23+AC23*I23</f>
       </c>
       <c r="L23" s="3">
-        <f t="shared" si="6"/>
-        <v>1311.85356095887</v>
+        <f>J23*C23^K23</f>
       </c>
       <c r="M23" s="3">
         <v>0.6</v>
@@ -3415,8 +3177,7 @@
         <v>1</v>
       </c>
       <c r="P23" s="3">
-        <f t="shared" si="7"/>
-        <v>472.26728194519319</v>
+        <f>L23*M23*(1-N23) *O23</f>
       </c>
       <c r="Q23" s="3">
         <v>0.5</v>
@@ -3428,33 +3189,27 @@
         <v>1.5</v>
       </c>
       <c r="T23" s="3">
-        <f t="shared" si="8"/>
-        <v>0.5</v>
+        <f>AA23*Q23+AB23*R23+AC23*S23</f>
       </c>
       <c r="U23" s="3">
-        <f t="shared" si="0"/>
-        <v>236.1336409725966</v>
+        <f>P23*T23</f>
       </c>
       <c r="V23" s="3">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07</v>
       </c>
       <c r="W23" s="3">
-        <f t="shared" si="1"/>
-        <v>33.058709736163529</v>
+        <f>P23*V23</f>
       </c>
       <c r="X23" s="3">
-        <f t="shared" si="2"/>
-        <v>16.529354868081764</v>
+        <f>U23*V23</f>
       </c>
       <c r="Y23" s="3">
-        <f t="shared" si="9"/>
-        <v>0.1015744</v>
+        <f>0.1015744</f>
       </c>
       <c r="Z23" s="3">
-        <f t="shared" si="3"/>
-        <v>49.689639004245286</v>
-      </c>
-      <c r="AA23" s="15">
+        <f>SUM(W23:Y23)</f>
+      </c>
+      <c r="AA23" s="13">
         <v>1</v>
       </c>
       <c r="AB23" s="14">
@@ -3482,45 +3237,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="1">
         <v>2230</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="C24" s="3">
         <v>32169</v>
       </c>
-      <c r="D24" s="18">
-        <v>24.077999999999999</v>
-      </c>
-      <c r="E24" s="20">
-        <v>33.642000000000003</v>
-      </c>
-      <c r="F24" s="20">
-        <v>30.824000000000002</v>
-      </c>
-      <c r="G24" s="18">
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="H24" s="20">
+      <c r="D24" s="12">
+        <v>24.078</v>
+      </c>
+      <c r="E24" s="3">
+        <v>33.642</v>
+      </c>
+      <c r="F24" s="3">
+        <v>30.824</v>
+      </c>
+      <c r="G24" s="12">
+        <v>0.3852</v>
+      </c>
+      <c r="H24" s="3">
         <v>0.3574</v>
       </c>
-      <c r="I24" s="21">
-        <v>0.32490000000000002</v>
-      </c>
-      <c r="J24" s="18">
-        <f t="shared" si="4"/>
-        <v>24.077999999999999</v>
-      </c>
-      <c r="K24" s="18">
-        <f t="shared" si="5"/>
-        <v>0.38519999999999999</v>
+      <c r="I24" s="12">
+        <v>0.3249</v>
+      </c>
+      <c r="J24" s="12">
+        <f>AA24*D24+AB24*E24+AC24*F24</f>
+      </c>
+      <c r="K24" s="12">
+        <f>AA24*G24+AB24*H24+AC24*I24</f>
       </c>
       <c r="L24" s="3">
-        <f t="shared" si="6"/>
-        <v>1311.85356095887</v>
+        <f>J24*C24^K24</f>
       </c>
       <c r="M24" s="3">
         <v>0.6</v>
@@ -3532,8 +3284,7 @@
         <v>1</v>
       </c>
       <c r="P24" s="3">
-        <f t="shared" si="7"/>
-        <v>472.26728194519319</v>
+        <f>L24*M24*(1-N24) *O24</f>
       </c>
       <c r="Q24" s="3">
         <v>0.5</v>
@@ -3545,33 +3296,27 @@
         <v>1.5</v>
       </c>
       <c r="T24" s="3">
-        <f t="shared" si="8"/>
-        <v>0.5</v>
+        <f>AA24*Q24+AB24*R24+AC24*S24</f>
       </c>
       <c r="U24" s="3">
-        <f t="shared" si="0"/>
-        <v>236.1336409725966</v>
+        <f>P24*T24</f>
       </c>
       <c r="V24" s="3">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07</v>
       </c>
       <c r="W24" s="3">
-        <f t="shared" si="1"/>
-        <v>33.058709736163529</v>
+        <f>P24*V24</f>
       </c>
       <c r="X24" s="3">
-        <f t="shared" si="2"/>
-        <v>16.529354868081764</v>
+        <f>U24*V24</f>
       </c>
       <c r="Y24" s="3">
-        <f t="shared" si="9"/>
-        <v>0.1015744</v>
+        <f>0.1015744</f>
       </c>
       <c r="Z24" s="3">
-        <f t="shared" si="3"/>
-        <v>49.689639004245286</v>
-      </c>
-      <c r="AA24" s="15">
+        <f>SUM(W24:Y24)</f>
+      </c>
+      <c r="AA24" s="13">
         <v>1</v>
       </c>
       <c r="AB24" s="14">
@@ -3599,45 +3344,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="1">
         <v>2310</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C25" s="3">
         <v>32169</v>
       </c>
-      <c r="D25" s="18">
-        <v>24.077999999999999</v>
-      </c>
-      <c r="E25" s="20">
-        <v>33.642000000000003</v>
-      </c>
-      <c r="F25" s="20">
-        <v>30.824000000000002</v>
-      </c>
-      <c r="G25" s="18">
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="H25" s="20">
+      <c r="D25" s="12">
+        <v>24.078</v>
+      </c>
+      <c r="E25" s="3">
+        <v>33.642</v>
+      </c>
+      <c r="F25" s="3">
+        <v>30.824</v>
+      </c>
+      <c r="G25" s="12">
+        <v>0.3852</v>
+      </c>
+      <c r="H25" s="3">
         <v>0.3574</v>
       </c>
-      <c r="I25" s="21">
-        <v>0.32490000000000002</v>
-      </c>
-      <c r="J25" s="18">
-        <f t="shared" si="4"/>
-        <v>24.077999999999999</v>
-      </c>
-      <c r="K25" s="18">
-        <f t="shared" si="5"/>
-        <v>0.38519999999999999</v>
+      <c r="I25" s="12">
+        <v>0.3249</v>
+      </c>
+      <c r="J25" s="12">
+        <f>AA25*D25+AB25*E25+AC25*F25</f>
+      </c>
+      <c r="K25" s="12">
+        <f>AA25*G25+AB25*H25+AC25*I25</f>
       </c>
       <c r="L25" s="3">
-        <f t="shared" si="6"/>
-        <v>1311.85356095887</v>
+        <f>J25*C25^K25</f>
       </c>
       <c r="M25" s="3">
         <v>0.6</v>
@@ -3649,8 +3391,7 @@
         <v>1</v>
       </c>
       <c r="P25" s="3">
-        <f t="shared" si="7"/>
-        <v>472.26728194519319</v>
+        <f>L25*M25*(1-N25) *O25</f>
       </c>
       <c r="Q25" s="3">
         <v>0.5</v>
@@ -3662,33 +3403,27 @@
         <v>1.5</v>
       </c>
       <c r="T25" s="3">
-        <f t="shared" si="8"/>
-        <v>0.5</v>
+        <f>AA25*Q25+AB25*R25+AC25*S25</f>
       </c>
       <c r="U25" s="3">
-        <f t="shared" si="0"/>
-        <v>236.1336409725966</v>
+        <f>P25*T25</f>
       </c>
       <c r="V25" s="3">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07</v>
       </c>
       <c r="W25" s="3">
-        <f t="shared" si="1"/>
-        <v>33.058709736163529</v>
+        <f>P25*V25</f>
       </c>
       <c r="X25" s="3">
-        <f t="shared" si="2"/>
-        <v>16.529354868081764</v>
+        <f>U25*V25</f>
       </c>
       <c r="Y25" s="3">
-        <f t="shared" si="9"/>
-        <v>0.1015744</v>
+        <f>0.1015744</f>
       </c>
       <c r="Z25" s="3">
-        <f t="shared" si="3"/>
-        <v>49.689639004245286</v>
-      </c>
-      <c r="AA25" s="15">
+        <f>SUM(W25:Y25)</f>
+      </c>
+      <c r="AA25" s="13">
         <v>1</v>
       </c>
       <c r="AB25" s="14">
@@ -3716,45 +3451,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="1">
         <v>2410</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="C26" s="3">
         <v>32169</v>
       </c>
-      <c r="D26" s="18">
-        <v>24.077999999999999</v>
-      </c>
-      <c r="E26" s="20">
-        <v>33.642000000000003</v>
-      </c>
-      <c r="F26" s="20">
-        <v>30.824000000000002</v>
-      </c>
-      <c r="G26" s="18">
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="H26" s="20">
+      <c r="D26" s="12">
+        <v>24.078</v>
+      </c>
+      <c r="E26" s="3">
+        <v>33.642</v>
+      </c>
+      <c r="F26" s="3">
+        <v>30.824</v>
+      </c>
+      <c r="G26" s="12">
+        <v>0.3852</v>
+      </c>
+      <c r="H26" s="3">
         <v>0.3574</v>
       </c>
-      <c r="I26" s="21">
-        <v>0.32490000000000002</v>
-      </c>
-      <c r="J26" s="18">
-        <f t="shared" si="4"/>
-        <v>24.077999999999999</v>
-      </c>
-      <c r="K26" s="18">
-        <f t="shared" si="5"/>
-        <v>0.38519999999999999</v>
+      <c r="I26" s="12">
+        <v>0.3249</v>
+      </c>
+      <c r="J26" s="12">
+        <f>AA26*D26+AB26*E26+AC26*F26</f>
+      </c>
+      <c r="K26" s="12">
+        <f>AA26*G26+AB26*H26+AC26*I26</f>
       </c>
       <c r="L26" s="3">
-        <f t="shared" si="6"/>
-        <v>1311.85356095887</v>
+        <f>J26*C26^K26</f>
       </c>
       <c r="M26" s="3">
         <v>0.6</v>
@@ -3766,8 +3498,7 @@
         <v>1</v>
       </c>
       <c r="P26" s="3">
-        <f t="shared" si="7"/>
-        <v>472.26728194519319</v>
+        <f>L26*M26*(1-N26) *O26</f>
       </c>
       <c r="Q26" s="3">
         <v>0.5</v>
@@ -3779,33 +3510,27 @@
         <v>1.5</v>
       </c>
       <c r="T26" s="3">
-        <f t="shared" si="8"/>
-        <v>0.5</v>
+        <f>AA26*Q26+AB26*R26+AC26*S26</f>
       </c>
       <c r="U26" s="3">
-        <f t="shared" si="0"/>
-        <v>236.1336409725966</v>
+        <f>P26*T26</f>
       </c>
       <c r="V26" s="3">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07</v>
       </c>
       <c r="W26" s="3">
-        <f t="shared" si="1"/>
-        <v>33.058709736163529</v>
+        <f>P26*V26</f>
       </c>
       <c r="X26" s="3">
-        <f t="shared" si="2"/>
-        <v>16.529354868081764</v>
+        <f>U26*V26</f>
       </c>
       <c r="Y26" s="3">
-        <f t="shared" si="9"/>
-        <v>0.1015744</v>
+        <f>0.1015744</f>
       </c>
       <c r="Z26" s="3">
-        <f t="shared" si="3"/>
-        <v>49.689639004245286</v>
-      </c>
-      <c r="AA26" s="15">
+        <f>SUM(W26:Y26)</f>
+      </c>
+      <c r="AA26" s="13">
         <v>1</v>
       </c>
       <c r="AB26" s="14">
@@ -3833,45 +3558,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="1">
         <v>2420</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="C27" s="3">
         <v>32169</v>
       </c>
-      <c r="D27" s="18">
-        <v>24.077999999999999</v>
-      </c>
-      <c r="E27" s="20">
-        <v>33.642000000000003</v>
-      </c>
-      <c r="F27" s="20">
-        <v>30.824000000000002</v>
-      </c>
-      <c r="G27" s="18">
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="H27" s="20">
+      <c r="D27" s="12">
+        <v>24.078</v>
+      </c>
+      <c r="E27" s="3">
+        <v>33.642</v>
+      </c>
+      <c r="F27" s="3">
+        <v>30.824</v>
+      </c>
+      <c r="G27" s="12">
+        <v>0.3852</v>
+      </c>
+      <c r="H27" s="3">
         <v>0.3574</v>
       </c>
-      <c r="I27" s="21">
-        <v>0.32490000000000002</v>
-      </c>
-      <c r="J27" s="18">
-        <f t="shared" si="4"/>
-        <v>24.077999999999999</v>
-      </c>
-      <c r="K27" s="18">
-        <f t="shared" si="5"/>
-        <v>0.38519999999999999</v>
+      <c r="I27" s="12">
+        <v>0.3249</v>
+      </c>
+      <c r="J27" s="12">
+        <f>AA27*D27+AB27*E27+AC27*F27</f>
+      </c>
+      <c r="K27" s="12">
+        <f>AA27*G27+AB27*H27+AC27*I27</f>
       </c>
       <c r="L27" s="3">
-        <f t="shared" si="6"/>
-        <v>1311.85356095887</v>
+        <f>J27*C27^K27</f>
       </c>
       <c r="M27" s="3">
         <v>0.6</v>
@@ -3883,8 +3605,7 @@
         <v>1</v>
       </c>
       <c r="P27" s="3">
-        <f t="shared" si="7"/>
-        <v>472.26728194519319</v>
+        <f>L27*M27*(1-N27) *O27</f>
       </c>
       <c r="Q27" s="3">
         <v>0.5</v>
@@ -3896,33 +3617,27 @@
         <v>1.5</v>
       </c>
       <c r="T27" s="3">
-        <f t="shared" si="8"/>
-        <v>0.5</v>
+        <f>AA27*Q27+AB27*R27+AC27*S27</f>
       </c>
       <c r="U27" s="3">
-        <f t="shared" si="0"/>
-        <v>236.1336409725966</v>
+        <f>P27*T27</f>
       </c>
       <c r="V27" s="3">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07</v>
       </c>
       <c r="W27" s="3">
-        <f t="shared" si="1"/>
-        <v>33.058709736163529</v>
+        <f>P27*V27</f>
       </c>
       <c r="X27" s="3">
-        <f t="shared" si="2"/>
-        <v>16.529354868081764</v>
+        <f>U27*V27</f>
       </c>
       <c r="Y27" s="3">
-        <f t="shared" si="9"/>
-        <v>0.1015744</v>
+        <f>0.1015744</f>
       </c>
       <c r="Z27" s="3">
-        <f t="shared" si="3"/>
-        <v>49.689639004245286</v>
-      </c>
-      <c r="AA27" s="15">
+        <f>SUM(W27:Y27)</f>
+      </c>
+      <c r="AA27" s="13">
         <v>1</v>
       </c>
       <c r="AB27" s="14">
@@ -3950,45 +3665,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
       <c r="A28" s="1">
         <v>2430</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="C28" s="3">
         <v>32169</v>
       </c>
-      <c r="D28" s="18">
-        <v>24.077999999999999</v>
-      </c>
-      <c r="E28" s="20">
-        <v>33.642000000000003</v>
-      </c>
-      <c r="F28" s="20">
-        <v>30.824000000000002</v>
-      </c>
-      <c r="G28" s="18">
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="H28" s="20">
+      <c r="D28" s="12">
+        <v>24.078</v>
+      </c>
+      <c r="E28" s="3">
+        <v>33.642</v>
+      </c>
+      <c r="F28" s="3">
+        <v>30.824</v>
+      </c>
+      <c r="G28" s="12">
+        <v>0.3852</v>
+      </c>
+      <c r="H28" s="3">
         <v>0.3574</v>
       </c>
-      <c r="I28" s="21">
-        <v>0.32490000000000002</v>
-      </c>
-      <c r="J28" s="18">
-        <f t="shared" si="4"/>
-        <v>24.077999999999999</v>
-      </c>
-      <c r="K28" s="18">
-        <f t="shared" si="5"/>
-        <v>0.38519999999999999</v>
+      <c r="I28" s="12">
+        <v>0.3249</v>
+      </c>
+      <c r="J28" s="12">
+        <f>AA28*D28+AB28*E28+AC28*F28</f>
+      </c>
+      <c r="K28" s="12">
+        <f>AA28*G28+AB28*H28+AC28*I28</f>
       </c>
       <c r="L28" s="3">
-        <f t="shared" si="6"/>
-        <v>1311.85356095887</v>
+        <f>J28*C28^K28</f>
       </c>
       <c r="M28" s="3">
         <v>0.6</v>
@@ -4000,8 +3712,7 @@
         <v>1</v>
       </c>
       <c r="P28" s="3">
-        <f t="shared" si="7"/>
-        <v>472.26728194519319</v>
+        <f>L28*M28*(1-N28) *O28</f>
       </c>
       <c r="Q28" s="3">
         <v>0.5</v>
@@ -4013,33 +3724,27 @@
         <v>1.5</v>
       </c>
       <c r="T28" s="3">
-        <f t="shared" si="8"/>
-        <v>0.5</v>
+        <f>AA28*Q28+AB28*R28+AC28*S28</f>
       </c>
       <c r="U28" s="3">
-        <f t="shared" si="0"/>
-        <v>236.1336409725966</v>
+        <f>P28*T28</f>
       </c>
       <c r="V28" s="3">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07</v>
       </c>
       <c r="W28" s="3">
-        <f t="shared" si="1"/>
-        <v>33.058709736163529</v>
+        <f>P28*V28</f>
       </c>
       <c r="X28" s="3">
-        <f t="shared" si="2"/>
-        <v>16.529354868081764</v>
+        <f>U28*V28</f>
       </c>
       <c r="Y28" s="3">
-        <f t="shared" si="9"/>
-        <v>0.1015744</v>
+        <f>0.1015744</f>
       </c>
       <c r="Z28" s="3">
-        <f t="shared" si="3"/>
-        <v>49.689639004245286</v>
-      </c>
-      <c r="AA28" s="15">
+        <f>SUM(W28:Y28)</f>
+      </c>
+      <c r="AA28" s="13">
         <v>1</v>
       </c>
       <c r="AB28" s="14">
@@ -4067,45 +3772,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
       <c r="A29" s="1">
         <v>2440</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="C29" s="3">
         <v>32169</v>
       </c>
-      <c r="D29" s="18">
-        <v>24.077999999999999</v>
-      </c>
-      <c r="E29" s="20">
-        <v>33.642000000000003</v>
-      </c>
-      <c r="F29" s="20">
-        <v>30.824000000000002</v>
-      </c>
-      <c r="G29" s="18">
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="H29" s="20">
+      <c r="D29" s="12">
+        <v>24.078</v>
+      </c>
+      <c r="E29" s="3">
+        <v>33.642</v>
+      </c>
+      <c r="F29" s="3">
+        <v>30.824</v>
+      </c>
+      <c r="G29" s="12">
+        <v>0.3852</v>
+      </c>
+      <c r="H29" s="3">
         <v>0.3574</v>
       </c>
-      <c r="I29" s="21">
-        <v>0.32490000000000002</v>
-      </c>
-      <c r="J29" s="18">
-        <f t="shared" si="4"/>
-        <v>24.077999999999999</v>
-      </c>
-      <c r="K29" s="18">
-        <f t="shared" si="5"/>
-        <v>0.38519999999999999</v>
+      <c r="I29" s="12">
+        <v>0.3249</v>
+      </c>
+      <c r="J29" s="12">
+        <f>AA29*D29+AB29*E29+AC29*F29</f>
+      </c>
+      <c r="K29" s="12">
+        <f>AA29*G29+AB29*H29+AC29*I29</f>
       </c>
       <c r="L29" s="3">
-        <f t="shared" si="6"/>
-        <v>1311.85356095887</v>
+        <f>J29*C29^K29</f>
       </c>
       <c r="M29" s="3">
         <v>0.6</v>
@@ -4117,8 +3819,7 @@
         <v>1</v>
       </c>
       <c r="P29" s="3">
-        <f t="shared" si="7"/>
-        <v>472.26728194519319</v>
+        <f>L29*M29*(1-N29) *O29</f>
       </c>
       <c r="Q29" s="3">
         <v>0.5</v>
@@ -4130,33 +3831,27 @@
         <v>1.5</v>
       </c>
       <c r="T29" s="3">
-        <f t="shared" si="8"/>
-        <v>0.5</v>
+        <f>AA29*Q29+AB29*R29+AC29*S29</f>
       </c>
       <c r="U29" s="3">
-        <f t="shared" si="0"/>
-        <v>236.1336409725966</v>
+        <f>P29*T29</f>
       </c>
       <c r="V29" s="3">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07</v>
       </c>
       <c r="W29" s="3">
-        <f t="shared" si="1"/>
-        <v>33.058709736163529</v>
+        <f>P29*V29</f>
       </c>
       <c r="X29" s="3">
-        <f t="shared" si="2"/>
-        <v>16.529354868081764</v>
+        <f>U29*V29</f>
       </c>
       <c r="Y29" s="3">
-        <f t="shared" si="9"/>
-        <v>0.1015744</v>
+        <f>0.1015744</f>
       </c>
       <c r="Z29" s="3">
-        <f t="shared" si="3"/>
-        <v>49.689639004245286</v>
-      </c>
-      <c r="AA29" s="15">
+        <f>SUM(W29:Y29)</f>
+      </c>
+      <c r="AA29" s="13">
         <v>1</v>
       </c>
       <c r="AB29" s="14">
@@ -4184,45 +3879,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
       <c r="A30" s="1">
         <v>3110</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="C30" s="3">
         <v>32169</v>
       </c>
-      <c r="D30" s="18">
-        <v>24.077999999999999</v>
-      </c>
-      <c r="E30" s="20">
-        <v>33.642000000000003</v>
-      </c>
-      <c r="F30" s="20">
-        <v>30.824000000000002</v>
-      </c>
-      <c r="G30" s="18">
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="H30" s="20">
+      <c r="D30" s="12">
+        <v>24.078</v>
+      </c>
+      <c r="E30" s="3">
+        <v>33.642</v>
+      </c>
+      <c r="F30" s="3">
+        <v>30.824</v>
+      </c>
+      <c r="G30" s="12">
+        <v>0.3852</v>
+      </c>
+      <c r="H30" s="3">
         <v>0.3574</v>
       </c>
-      <c r="I30" s="21">
-        <v>0.32490000000000002</v>
-      </c>
-      <c r="J30" s="18">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K30" s="18">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="I30" s="12">
+        <v>0.3249</v>
+      </c>
+      <c r="J30" s="12">
+        <f>AA30*D30+AB30*E30+AC30*F30</f>
+      </c>
+      <c r="K30" s="12">
+        <f>AA30*G30+AB30*H30+AC30*I30</f>
       </c>
       <c r="L30" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>J30*C30^K30</f>
       </c>
       <c r="M30" s="3">
         <v>0</v>
@@ -4234,8 +3926,7 @@
         <v>1</v>
       </c>
       <c r="P30" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f>L30*M30*(1-N30) *O30</f>
       </c>
       <c r="Q30" s="3">
         <v>0.5</v>
@@ -4247,32 +3938,27 @@
         <v>1.5</v>
       </c>
       <c r="T30" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>AA30*Q30+AB30*R30+AC30*S30</f>
       </c>
       <c r="U30" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>P30*T30</f>
       </c>
       <c r="V30" s="3">
         <v>0</v>
       </c>
       <c r="W30" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>P30*V30</f>
       </c>
       <c r="X30" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>U30*V30</f>
       </c>
       <c r="Y30" s="3">
         <v>0</v>
       </c>
       <c r="Z30" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AA30" s="15">
+        <f>SUM(W30:Y30)</f>
+      </c>
+      <c r="AA30" s="13">
         <v>0</v>
       </c>
       <c r="AB30" s="14">
@@ -4300,45 +3986,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
       <c r="A31" s="1">
         <v>3120</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="C31" s="3">
         <v>32169</v>
       </c>
-      <c r="D31" s="18">
-        <v>24.077999999999999</v>
-      </c>
-      <c r="E31" s="20">
-        <v>33.642000000000003</v>
-      </c>
-      <c r="F31" s="20">
-        <v>30.824000000000002</v>
-      </c>
-      <c r="G31" s="18">
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="H31" s="20">
+      <c r="D31" s="12">
+        <v>24.078</v>
+      </c>
+      <c r="E31" s="3">
+        <v>33.642</v>
+      </c>
+      <c r="F31" s="3">
+        <v>30.824</v>
+      </c>
+      <c r="G31" s="12">
+        <v>0.3852</v>
+      </c>
+      <c r="H31" s="3">
         <v>0.3574</v>
       </c>
-      <c r="I31" s="21">
-        <v>0.32490000000000002</v>
-      </c>
-      <c r="J31" s="18">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K31" s="18">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="I31" s="12">
+        <v>0.3249</v>
+      </c>
+      <c r="J31" s="12">
+        <f>AA31*D31+AB31*E31+AC31*F31</f>
+      </c>
+      <c r="K31" s="12">
+        <f>AA31*G31+AB31*H31+AC31*I31</f>
       </c>
       <c r="L31" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>J31*C31^K31</f>
       </c>
       <c r="M31" s="3">
         <v>0</v>
@@ -4350,8 +4033,7 @@
         <v>1</v>
       </c>
       <c r="P31" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f>L31*M31*(1-N31) *O31</f>
       </c>
       <c r="Q31" s="3">
         <v>0.5</v>
@@ -4363,32 +4045,27 @@
         <v>1.5</v>
       </c>
       <c r="T31" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>AA31*Q31+AB31*R31+AC31*S31</f>
       </c>
       <c r="U31" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>P31*T31</f>
       </c>
       <c r="V31" s="3">
         <v>0</v>
       </c>
       <c r="W31" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>P31*V31</f>
       </c>
       <c r="X31" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>U31*V31</f>
       </c>
       <c r="Y31" s="3">
         <v>0</v>
       </c>
       <c r="Z31" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AA31" s="15">
+        <f>SUM(W31:Y31)</f>
+      </c>
+      <c r="AA31" s="13">
         <v>0</v>
       </c>
       <c r="AB31" s="14">
@@ -4416,45 +4093,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
       <c r="A32" s="1">
         <v>3130</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="C32" s="3">
         <v>32169</v>
       </c>
-      <c r="D32" s="18">
-        <v>24.077999999999999</v>
-      </c>
-      <c r="E32" s="20">
-        <v>33.642000000000003</v>
-      </c>
-      <c r="F32" s="20">
-        <v>30.824000000000002</v>
-      </c>
-      <c r="G32" s="18">
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="H32" s="20">
+      <c r="D32" s="12">
+        <v>24.078</v>
+      </c>
+      <c r="E32" s="3">
+        <v>33.642</v>
+      </c>
+      <c r="F32" s="3">
+        <v>30.824</v>
+      </c>
+      <c r="G32" s="12">
+        <v>0.3852</v>
+      </c>
+      <c r="H32" s="3">
         <v>0.3574</v>
       </c>
-      <c r="I32" s="21">
-        <v>0.32490000000000002</v>
-      </c>
-      <c r="J32" s="18">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K32" s="18">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="I32" s="12">
+        <v>0.3249</v>
+      </c>
+      <c r="J32" s="12">
+        <f>AA32*D32+AB32*E32+AC32*F32</f>
+      </c>
+      <c r="K32" s="12">
+        <f>AA32*G32+AB32*H32+AC32*I32</f>
       </c>
       <c r="L32" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>J32*C32^K32</f>
       </c>
       <c r="M32" s="3">
         <v>0</v>
@@ -4466,8 +4140,7 @@
         <v>1</v>
       </c>
       <c r="P32" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f>L32*M32*(1-N32) *O32</f>
       </c>
       <c r="Q32" s="3">
         <v>0.5</v>
@@ -4479,32 +4152,27 @@
         <v>1.5</v>
       </c>
       <c r="T32" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>AA32*Q32+AB32*R32+AC32*S32</f>
       </c>
       <c r="U32" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>P32*T32</f>
       </c>
       <c r="V32" s="3">
         <v>0</v>
       </c>
       <c r="W32" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>P32*V32</f>
       </c>
       <c r="X32" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>U32*V32</f>
       </c>
       <c r="Y32" s="3">
         <v>0</v>
       </c>
       <c r="Z32" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AA32" s="15">
+        <f>SUM(W32:Y32)</f>
+      </c>
+      <c r="AA32" s="13">
         <v>0</v>
       </c>
       <c r="AB32" s="14">
@@ -4532,45 +4200,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
       <c r="A33" s="1">
         <v>3210</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="C33" s="3">
         <v>32169</v>
       </c>
-      <c r="D33" s="18">
-        <v>24.077999999999999</v>
-      </c>
-      <c r="E33" s="20">
-        <v>33.642000000000003</v>
-      </c>
-      <c r="F33" s="20">
-        <v>30.824000000000002</v>
-      </c>
-      <c r="G33" s="18">
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="H33" s="20">
+      <c r="D33" s="12">
+        <v>24.078</v>
+      </c>
+      <c r="E33" s="3">
+        <v>33.642</v>
+      </c>
+      <c r="F33" s="3">
+        <v>30.824</v>
+      </c>
+      <c r="G33" s="12">
+        <v>0.3852</v>
+      </c>
+      <c r="H33" s="3">
         <v>0.3574</v>
       </c>
-      <c r="I33" s="21">
-        <v>0.32490000000000002</v>
-      </c>
-      <c r="J33" s="18">
-        <f t="shared" si="4"/>
-        <v>24.077999999999999</v>
-      </c>
-      <c r="K33" s="18">
-        <f t="shared" si="5"/>
-        <v>0.38519999999999999</v>
+      <c r="I33" s="12">
+        <v>0.3249</v>
+      </c>
+      <c r="J33" s="12">
+        <f>AA33*D33+AB33*E33+AC33*F33</f>
+      </c>
+      <c r="K33" s="12">
+        <f>AA33*G33+AB33*H33+AC33*I33</f>
       </c>
       <c r="L33" s="3">
-        <f t="shared" si="6"/>
-        <v>1311.85356095887</v>
+        <f>J33*C33^K33</f>
       </c>
       <c r="M33" s="3">
         <v>0.6</v>
@@ -4582,8 +4247,7 @@
         <v>1</v>
       </c>
       <c r="P33" s="3">
-        <f t="shared" si="7"/>
-        <v>472.26728194519319</v>
+        <f>L33*M33*(1-N33) *O33</f>
       </c>
       <c r="Q33" s="3">
         <v>0.5</v>
@@ -4595,32 +4259,27 @@
         <v>1.5</v>
       </c>
       <c r="T33" s="3">
-        <f t="shared" si="8"/>
-        <v>0.5</v>
+        <f>AA33*Q33+AB33*R33+AC33*S33</f>
       </c>
       <c r="U33" s="3">
-        <f t="shared" si="0"/>
-        <v>236.1336409725966</v>
+        <f>P33*T33</f>
       </c>
       <c r="V33" s="3">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07</v>
       </c>
       <c r="W33" s="3">
-        <f t="shared" si="1"/>
-        <v>33.058709736163529</v>
+        <f>P33*V33</f>
       </c>
       <c r="X33" s="3">
-        <f t="shared" si="2"/>
-        <v>16.529354868081764</v>
+        <f>U33*V33</f>
       </c>
       <c r="Y33" s="3">
         <v>0</v>
       </c>
       <c r="Z33" s="3">
-        <f t="shared" si="3"/>
-        <v>49.58806460424529</v>
-      </c>
-      <c r="AA33" s="15">
+        <f>SUM(W33:Y33)</f>
+      </c>
+      <c r="AA33" s="13">
         <v>1</v>
       </c>
       <c r="AB33" s="14">
@@ -4648,45 +4307,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
       <c r="A34" s="1">
         <v>3220</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="C34" s="3">
         <v>32169</v>
       </c>
-      <c r="D34" s="18">
-        <v>24.077999999999999</v>
-      </c>
-      <c r="E34" s="20">
-        <v>33.642000000000003</v>
-      </c>
-      <c r="F34" s="20">
-        <v>30.824000000000002</v>
-      </c>
-      <c r="G34" s="18">
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="H34" s="20">
+      <c r="D34" s="12">
+        <v>24.078</v>
+      </c>
+      <c r="E34" s="3">
+        <v>33.642</v>
+      </c>
+      <c r="F34" s="3">
+        <v>30.824</v>
+      </c>
+      <c r="G34" s="12">
+        <v>0.3852</v>
+      </c>
+      <c r="H34" s="3">
         <v>0.3574</v>
       </c>
-      <c r="I34" s="21">
-        <v>0.32490000000000002</v>
-      </c>
-      <c r="J34" s="18">
-        <f t="shared" si="4"/>
-        <v>24.077999999999999</v>
-      </c>
-      <c r="K34" s="18">
-        <f t="shared" si="5"/>
-        <v>0.38519999999999999</v>
+      <c r="I34" s="12">
+        <v>0.3249</v>
+      </c>
+      <c r="J34" s="12">
+        <f>AA34*D34+AB34*E34+AC34*F34</f>
+      </c>
+      <c r="K34" s="12">
+        <f>AA34*G34+AB34*H34+AC34*I34</f>
       </c>
       <c r="L34" s="3">
-        <f t="shared" si="6"/>
-        <v>1311.85356095887</v>
+        <f>J34*C34^K34</f>
       </c>
       <c r="M34" s="3">
         <v>0.6</v>
@@ -4698,8 +4354,7 @@
         <v>1</v>
       </c>
       <c r="P34" s="3">
-        <f t="shared" si="7"/>
-        <v>472.26728194519319</v>
+        <f>L34*M34*(1-N34) *O34</f>
       </c>
       <c r="Q34" s="3">
         <v>0.5</v>
@@ -4711,32 +4366,27 @@
         <v>1.5</v>
       </c>
       <c r="T34" s="3">
-        <f t="shared" si="8"/>
-        <v>0.5</v>
+        <f>AA34*Q34+AB34*R34+AC34*S34</f>
       </c>
       <c r="U34" s="3">
-        <f t="shared" si="0"/>
-        <v>236.1336409725966</v>
+        <f>P34*T34</f>
       </c>
       <c r="V34" s="3">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07</v>
       </c>
       <c r="W34" s="3">
-        <f t="shared" si="1"/>
-        <v>33.058709736163529</v>
+        <f>P34*V34</f>
       </c>
       <c r="X34" s="3">
-        <f t="shared" si="2"/>
-        <v>16.529354868081764</v>
+        <f>U34*V34</f>
       </c>
       <c r="Y34" s="3">
         <v>0</v>
       </c>
       <c r="Z34" s="3">
-        <f t="shared" si="3"/>
-        <v>49.58806460424529</v>
-      </c>
-      <c r="AA34" s="15">
+        <f>SUM(W34:Y34)</f>
+      </c>
+      <c r="AA34" s="13">
         <v>1</v>
       </c>
       <c r="AB34" s="14">
@@ -4764,45 +4414,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
       <c r="A35" s="1">
         <v>3230</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="C35" s="3">
         <v>32169</v>
       </c>
-      <c r="D35" s="18">
-        <v>24.077999999999999</v>
-      </c>
-      <c r="E35" s="20">
-        <v>33.642000000000003</v>
-      </c>
-      <c r="F35" s="20">
-        <v>30.824000000000002</v>
-      </c>
-      <c r="G35" s="18">
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="H35" s="20">
+      <c r="D35" s="12">
+        <v>24.078</v>
+      </c>
+      <c r="E35" s="3">
+        <v>33.642</v>
+      </c>
+      <c r="F35" s="3">
+        <v>30.824</v>
+      </c>
+      <c r="G35" s="12">
+        <v>0.3852</v>
+      </c>
+      <c r="H35" s="3">
         <v>0.3574</v>
       </c>
-      <c r="I35" s="21">
-        <v>0.32490000000000002</v>
-      </c>
-      <c r="J35" s="18">
-        <f t="shared" si="4"/>
-        <v>24.077999999999999</v>
-      </c>
-      <c r="K35" s="18">
-        <f t="shared" si="5"/>
-        <v>0.38519999999999999</v>
+      <c r="I35" s="12">
+        <v>0.3249</v>
+      </c>
+      <c r="J35" s="12">
+        <f>AA35*D35+AB35*E35+AC35*F35</f>
+      </c>
+      <c r="K35" s="12">
+        <f>AA35*G35+AB35*H35+AC35*I35</f>
       </c>
       <c r="L35" s="3">
-        <f t="shared" si="6"/>
-        <v>1311.85356095887</v>
+        <f>J35*C35^K35</f>
       </c>
       <c r="M35" s="3">
         <v>0.6</v>
@@ -4814,8 +4461,7 @@
         <v>1</v>
       </c>
       <c r="P35" s="3">
-        <f t="shared" si="7"/>
-        <v>472.26728194519319</v>
+        <f>L35*M35*(1-N35) *O35</f>
       </c>
       <c r="Q35" s="3">
         <v>0.5</v>
@@ -4827,32 +4473,27 @@
         <v>1.5</v>
       </c>
       <c r="T35" s="3">
-        <f t="shared" si="8"/>
-        <v>0.5</v>
+        <f>AA35*Q35+AB35*R35+AC35*S35</f>
       </c>
       <c r="U35" s="3">
-        <f t="shared" si="0"/>
-        <v>236.1336409725966</v>
+        <f>P35*T35</f>
       </c>
       <c r="V35" s="3">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07</v>
       </c>
       <c r="W35" s="3">
-        <f t="shared" si="1"/>
-        <v>33.058709736163529</v>
+        <f>P35*V35</f>
       </c>
       <c r="X35" s="3">
-        <f t="shared" si="2"/>
-        <v>16.529354868081764</v>
+        <f>U35*V35</f>
       </c>
       <c r="Y35" s="3">
         <v>0</v>
       </c>
       <c r="Z35" s="3">
-        <f t="shared" si="3"/>
-        <v>49.58806460424529</v>
-      </c>
-      <c r="AA35" s="15">
+        <f>SUM(W35:Y35)</f>
+      </c>
+      <c r="AA35" s="13">
         <v>1</v>
       </c>
       <c r="AB35" s="14">
@@ -4880,45 +4521,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
       <c r="A36" s="1">
         <v>3240</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="C36" s="3">
         <v>32169</v>
       </c>
-      <c r="D36" s="18">
-        <v>24.077999999999999</v>
-      </c>
-      <c r="E36" s="20">
-        <v>33.642000000000003</v>
-      </c>
-      <c r="F36" s="20">
-        <v>30.824000000000002</v>
-      </c>
-      <c r="G36" s="18">
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="H36" s="20">
+      <c r="D36" s="12">
+        <v>24.078</v>
+      </c>
+      <c r="E36" s="3">
+        <v>33.642</v>
+      </c>
+      <c r="F36" s="3">
+        <v>30.824</v>
+      </c>
+      <c r="G36" s="12">
+        <v>0.3852</v>
+      </c>
+      <c r="H36" s="3">
         <v>0.3574</v>
       </c>
-      <c r="I36" s="21">
-        <v>0.32490000000000002</v>
-      </c>
-      <c r="J36" s="18">
-        <f t="shared" si="4"/>
-        <v>24.077999999999999</v>
-      </c>
-      <c r="K36" s="18">
-        <f t="shared" si="5"/>
-        <v>0.38519999999999999</v>
+      <c r="I36" s="12">
+        <v>0.3249</v>
+      </c>
+      <c r="J36" s="12">
+        <f>AA36*D36+AB36*E36+AC36*F36</f>
+      </c>
+      <c r="K36" s="12">
+        <f>AA36*G36+AB36*H36+AC36*I36</f>
       </c>
       <c r="L36" s="3">
-        <f t="shared" si="6"/>
-        <v>1311.85356095887</v>
+        <f>J36*C36^K36</f>
       </c>
       <c r="M36" s="3">
         <v>0.6</v>
@@ -4930,8 +4568,7 @@
         <v>1</v>
       </c>
       <c r="P36" s="3">
-        <f t="shared" si="7"/>
-        <v>472.26728194519319</v>
+        <f>L36*M36*(1-N36) *O36</f>
       </c>
       <c r="Q36" s="3">
         <v>0.5</v>
@@ -4943,32 +4580,27 @@
         <v>1.5</v>
       </c>
       <c r="T36" s="3">
-        <f t="shared" si="8"/>
-        <v>0.5</v>
+        <f>AA36*Q36+AB36*R36+AC36*S36</f>
       </c>
       <c r="U36" s="3">
-        <f t="shared" si="0"/>
-        <v>236.1336409725966</v>
+        <f>P36*T36</f>
       </c>
       <c r="V36" s="3">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07</v>
       </c>
       <c r="W36" s="3">
-        <f t="shared" si="1"/>
-        <v>33.058709736163529</v>
+        <f>P36*V36</f>
       </c>
       <c r="X36" s="3">
-        <f t="shared" si="2"/>
-        <v>16.529354868081764</v>
+        <f>U36*V36</f>
       </c>
       <c r="Y36" s="3">
         <v>0</v>
       </c>
       <c r="Z36" s="3">
-        <f t="shared" si="3"/>
-        <v>49.58806460424529</v>
-      </c>
-      <c r="AA36" s="15">
+        <f>SUM(W36:Y36)</f>
+      </c>
+      <c r="AA36" s="13">
         <v>1</v>
       </c>
       <c r="AB36" s="14">
@@ -4996,45 +4628,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
       <c r="A37" s="1">
         <v>3310</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="C37" s="3">
         <v>32169</v>
       </c>
-      <c r="D37" s="18">
-        <v>24.077999999999999</v>
-      </c>
-      <c r="E37" s="20">
-        <v>33.642000000000003</v>
-      </c>
-      <c r="F37" s="20">
-        <v>30.824000000000002</v>
-      </c>
-      <c r="G37" s="18">
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="H37" s="20">
+      <c r="D37" s="12">
+        <v>24.078</v>
+      </c>
+      <c r="E37" s="3">
+        <v>33.642</v>
+      </c>
+      <c r="F37" s="3">
+        <v>30.824</v>
+      </c>
+      <c r="G37" s="12">
+        <v>0.3852</v>
+      </c>
+      <c r="H37" s="3">
         <v>0.3574</v>
       </c>
-      <c r="I37" s="21">
-        <v>0.32490000000000002</v>
-      </c>
-      <c r="J37" s="18">
-        <f t="shared" si="4"/>
-        <v>24.077999999999999</v>
-      </c>
-      <c r="K37" s="18">
-        <f t="shared" si="5"/>
-        <v>0.38519999999999999</v>
+      <c r="I37" s="12">
+        <v>0.3249</v>
+      </c>
+      <c r="J37" s="12">
+        <f>AA37*D37+AB37*E37+AC37*F37</f>
+      </c>
+      <c r="K37" s="12">
+        <f>AA37*G37+AB37*H37+AC37*I37</f>
       </c>
       <c r="L37" s="3">
-        <f t="shared" si="6"/>
-        <v>1311.85356095887</v>
+        <f>J37*C37^K37</f>
       </c>
       <c r="M37" s="3">
         <v>0.6</v>
@@ -5046,8 +4675,7 @@
         <v>1</v>
       </c>
       <c r="P37" s="3">
-        <f t="shared" si="7"/>
-        <v>472.26728194519319</v>
+        <f>L37*M37*(1-N37) *O37</f>
       </c>
       <c r="Q37" s="3">
         <v>0.5</v>
@@ -5059,32 +4687,27 @@
         <v>1.5</v>
       </c>
       <c r="T37" s="3">
-        <f t="shared" si="8"/>
-        <v>0.5</v>
+        <f>AA37*Q37+AB37*R37+AC37*S37</f>
       </c>
       <c r="U37" s="3">
-        <f t="shared" si="0"/>
-        <v>236.1336409725966</v>
+        <f>P37*T37</f>
       </c>
       <c r="V37" s="3">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07</v>
       </c>
       <c r="W37" s="3">
-        <f t="shared" si="1"/>
-        <v>33.058709736163529</v>
+        <f>P37*V37</f>
       </c>
       <c r="X37" s="3">
-        <f t="shared" si="2"/>
-        <v>16.529354868081764</v>
+        <f>U37*V37</f>
       </c>
       <c r="Y37" s="3">
         <v>0</v>
       </c>
       <c r="Z37" s="3">
-        <f t="shared" si="3"/>
-        <v>49.58806460424529</v>
-      </c>
-      <c r="AA37" s="15">
+        <f>SUM(W37:Y37)</f>
+      </c>
+      <c r="AA37" s="13">
         <v>1</v>
       </c>
       <c r="AB37" s="14">
@@ -5112,45 +4735,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
       <c r="A38" s="1">
         <v>3320</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="C38" s="3">
         <v>32169</v>
       </c>
-      <c r="D38" s="18">
-        <v>24.077999999999999</v>
-      </c>
-      <c r="E38" s="20">
-        <v>33.642000000000003</v>
-      </c>
-      <c r="F38" s="20">
-        <v>30.824000000000002</v>
-      </c>
-      <c r="G38" s="18">
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="H38" s="20">
+      <c r="D38" s="12">
+        <v>24.078</v>
+      </c>
+      <c r="E38" s="3">
+        <v>33.642</v>
+      </c>
+      <c r="F38" s="3">
+        <v>30.824</v>
+      </c>
+      <c r="G38" s="12">
+        <v>0.3852</v>
+      </c>
+      <c r="H38" s="3">
         <v>0.3574</v>
       </c>
-      <c r="I38" s="21">
-        <v>0.32490000000000002</v>
-      </c>
-      <c r="J38" s="18">
-        <f t="shared" si="4"/>
-        <v>24.077999999999999</v>
-      </c>
-      <c r="K38" s="18">
-        <f t="shared" si="5"/>
-        <v>0.38519999999999999</v>
+      <c r="I38" s="12">
+        <v>0.3249</v>
+      </c>
+      <c r="J38" s="12">
+        <f>AA38*D38+AB38*E38+AC38*F38</f>
+      </c>
+      <c r="K38" s="12">
+        <f>AA38*G38+AB38*H38+AC38*I38</f>
       </c>
       <c r="L38" s="3">
-        <f t="shared" si="6"/>
-        <v>1311.85356095887</v>
+        <f>J38*C38^K38</f>
       </c>
       <c r="M38" s="3">
         <v>0.6</v>
@@ -5162,8 +4782,7 @@
         <v>1</v>
       </c>
       <c r="P38" s="3">
-        <f t="shared" si="7"/>
-        <v>472.26728194519319</v>
+        <f>L38*M38*(1-N38) *O38</f>
       </c>
       <c r="Q38" s="3">
         <v>0.5</v>
@@ -5175,32 +4794,27 @@
         <v>1.5</v>
       </c>
       <c r="T38" s="3">
-        <f t="shared" si="8"/>
-        <v>0.5</v>
+        <f>AA38*Q38+AB38*R38+AC38*S38</f>
       </c>
       <c r="U38" s="3">
-        <f t="shared" si="0"/>
-        <v>236.1336409725966</v>
+        <f>P38*T38</f>
       </c>
       <c r="V38" s="3">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07</v>
       </c>
       <c r="W38" s="3">
-        <f t="shared" si="1"/>
-        <v>33.058709736163529</v>
+        <f>P38*V38</f>
       </c>
       <c r="X38" s="3">
-        <f t="shared" si="2"/>
-        <v>16.529354868081764</v>
+        <f>U38*V38</f>
       </c>
       <c r="Y38" s="3">
         <v>0</v>
       </c>
       <c r="Z38" s="3">
-        <f t="shared" si="3"/>
-        <v>49.58806460424529</v>
-      </c>
-      <c r="AA38" s="15">
+        <f>SUM(W38:Y38)</f>
+      </c>
+      <c r="AA38" s="13">
         <v>1</v>
       </c>
       <c r="AB38" s="14">
@@ -5228,45 +4842,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
       <c r="A39" s="1">
         <v>3330</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="C39" s="3">
         <v>32169</v>
       </c>
-      <c r="D39" s="18">
-        <v>24.077999999999999</v>
-      </c>
-      <c r="E39" s="20">
-        <v>33.642000000000003</v>
-      </c>
-      <c r="F39" s="20">
-        <v>30.824000000000002</v>
-      </c>
-      <c r="G39" s="18">
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="H39" s="20">
+      <c r="D39" s="12">
+        <v>24.078</v>
+      </c>
+      <c r="E39" s="3">
+        <v>33.642</v>
+      </c>
+      <c r="F39" s="3">
+        <v>30.824</v>
+      </c>
+      <c r="G39" s="12">
+        <v>0.3852</v>
+      </c>
+      <c r="H39" s="3">
         <v>0.3574</v>
       </c>
-      <c r="I39" s="21">
-        <v>0.32490000000000002</v>
-      </c>
-      <c r="J39" s="18">
-        <f t="shared" si="4"/>
-        <v>24.077999999999999</v>
-      </c>
-      <c r="K39" s="18">
-        <f t="shared" si="5"/>
-        <v>0.38519999999999999</v>
+      <c r="I39" s="12">
+        <v>0.3249</v>
+      </c>
+      <c r="J39" s="12">
+        <f>AA39*D39+AB39*E39+AC39*F39</f>
+      </c>
+      <c r="K39" s="12">
+        <f>AA39*G39+AB39*H39+AC39*I39</f>
       </c>
       <c r="L39" s="3">
-        <f t="shared" si="6"/>
-        <v>1311.85356095887</v>
+        <f>J39*C39^K39</f>
       </c>
       <c r="M39" s="3">
         <v>0.6</v>
@@ -5278,8 +4889,7 @@
         <v>1</v>
       </c>
       <c r="P39" s="3">
-        <f t="shared" si="7"/>
-        <v>472.26728194519319</v>
+        <f>L39*M39*(1-N39) *O39</f>
       </c>
       <c r="Q39" s="3">
         <v>0.5</v>
@@ -5291,32 +4901,27 @@
         <v>1.5</v>
       </c>
       <c r="T39" s="3">
-        <f t="shared" si="8"/>
-        <v>0.5</v>
+        <f>AA39*Q39+AB39*R39+AC39*S39</f>
       </c>
       <c r="U39" s="3">
-        <f t="shared" si="0"/>
-        <v>236.1336409725966</v>
+        <f>P39*T39</f>
       </c>
       <c r="V39" s="3">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07</v>
       </c>
       <c r="W39" s="3">
-        <f t="shared" si="1"/>
-        <v>33.058709736163529</v>
+        <f>P39*V39</f>
       </c>
       <c r="X39" s="3">
-        <f t="shared" si="2"/>
-        <v>16.529354868081764</v>
+        <f>U39*V39</f>
       </c>
       <c r="Y39" s="3">
         <v>0</v>
       </c>
       <c r="Z39" s="3">
-        <f t="shared" si="3"/>
-        <v>49.58806460424529</v>
-      </c>
-      <c r="AA39" s="15">
+        <f>SUM(W39:Y39)</f>
+      </c>
+      <c r="AA39" s="13">
         <v>1</v>
       </c>
       <c r="AB39" s="14">
@@ -5344,45 +4949,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
       <c r="A40" s="1">
         <v>3340</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="C40" s="3">
         <v>32169</v>
       </c>
-      <c r="D40" s="18">
-        <v>24.077999999999999</v>
-      </c>
-      <c r="E40" s="20">
-        <v>33.642000000000003</v>
-      </c>
-      <c r="F40" s="20">
-        <v>30.824000000000002</v>
-      </c>
-      <c r="G40" s="18">
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="H40" s="20">
+      <c r="D40" s="12">
+        <v>24.078</v>
+      </c>
+      <c r="E40" s="3">
+        <v>33.642</v>
+      </c>
+      <c r="F40" s="3">
+        <v>30.824</v>
+      </c>
+      <c r="G40" s="12">
+        <v>0.3852</v>
+      </c>
+      <c r="H40" s="3">
         <v>0.3574</v>
       </c>
-      <c r="I40" s="21">
-        <v>0.32490000000000002</v>
-      </c>
-      <c r="J40" s="18">
-        <f t="shared" si="4"/>
-        <v>24.077999999999999</v>
-      </c>
-      <c r="K40" s="18">
-        <f t="shared" si="5"/>
-        <v>0.38519999999999999</v>
+      <c r="I40" s="12">
+        <v>0.3249</v>
+      </c>
+      <c r="J40" s="12">
+        <f>AA40*D40+AB40*E40+AC40*F40</f>
+      </c>
+      <c r="K40" s="12">
+        <f>AA40*G40+AB40*H40+AC40*I40</f>
       </c>
       <c r="L40" s="3">
-        <f t="shared" si="6"/>
-        <v>1311.85356095887</v>
+        <f>J40*C40^K40</f>
       </c>
       <c r="M40" s="3">
         <v>0.6</v>
@@ -5394,8 +4996,7 @@
         <v>1</v>
       </c>
       <c r="P40" s="3">
-        <f t="shared" si="7"/>
-        <v>472.26728194519319</v>
+        <f>L40*M40*(1-N40) *O40</f>
       </c>
       <c r="Q40" s="3">
         <v>0.5</v>
@@ -5407,32 +5008,27 @@
         <v>1.5</v>
       </c>
       <c r="T40" s="3">
-        <f t="shared" si="8"/>
-        <v>0.5</v>
+        <f>AA40*Q40+AB40*R40+AC40*S40</f>
       </c>
       <c r="U40" s="3">
-        <f t="shared" si="0"/>
-        <v>236.1336409725966</v>
+        <f>P40*T40</f>
       </c>
       <c r="V40" s="3">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07</v>
       </c>
       <c r="W40" s="3">
-        <f t="shared" si="1"/>
-        <v>33.058709736163529</v>
+        <f>P40*V40</f>
       </c>
       <c r="X40" s="3">
-        <f t="shared" si="2"/>
-        <v>16.529354868081764</v>
+        <f>U40*V40</f>
       </c>
       <c r="Y40" s="3">
         <v>0</v>
       </c>
       <c r="Z40" s="3">
-        <f t="shared" si="3"/>
-        <v>49.58806460424529</v>
-      </c>
-      <c r="AA40" s="15">
+        <f>SUM(W40:Y40)</f>
+      </c>
+      <c r="AA40" s="13">
         <v>1</v>
       </c>
       <c r="AB40" s="14">
@@ -5460,45 +5056,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
       <c r="A41" s="1">
         <v>3350</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="C41" s="3">
         <v>32169</v>
       </c>
-      <c r="D41" s="18">
-        <v>24.077999999999999</v>
-      </c>
-      <c r="E41" s="20">
-        <v>33.642000000000003</v>
-      </c>
-      <c r="F41" s="20">
-        <v>30.824000000000002</v>
-      </c>
-      <c r="G41" s="18">
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="H41" s="20">
+      <c r="D41" s="12">
+        <v>24.078</v>
+      </c>
+      <c r="E41" s="3">
+        <v>33.642</v>
+      </c>
+      <c r="F41" s="3">
+        <v>30.824</v>
+      </c>
+      <c r="G41" s="12">
+        <v>0.3852</v>
+      </c>
+      <c r="H41" s="3">
         <v>0.3574</v>
       </c>
-      <c r="I41" s="21">
-        <v>0.32490000000000002</v>
-      </c>
-      <c r="J41" s="18">
-        <f t="shared" si="4"/>
-        <v>24.077999999999999</v>
-      </c>
-      <c r="K41" s="18">
-        <f t="shared" si="5"/>
-        <v>0.38519999999999999</v>
+      <c r="I41" s="12">
+        <v>0.3249</v>
+      </c>
+      <c r="J41" s="12">
+        <f>AA41*D41+AB41*E41+AC41*F41</f>
+      </c>
+      <c r="K41" s="12">
+        <f>AA41*G41+AB41*H41+AC41*I41</f>
       </c>
       <c r="L41" s="3">
-        <f t="shared" si="6"/>
-        <v>1311.85356095887</v>
+        <f>J41*C41^K41</f>
       </c>
       <c r="M41" s="3">
         <v>0.6</v>
@@ -5510,8 +5103,7 @@
         <v>1</v>
       </c>
       <c r="P41" s="3">
-        <f t="shared" si="7"/>
-        <v>472.26728194519319</v>
+        <f>L41*M41*(1-N41) *O41</f>
       </c>
       <c r="Q41" s="3">
         <v>0.5</v>
@@ -5523,32 +5115,27 @@
         <v>1.5</v>
       </c>
       <c r="T41" s="3">
-        <f t="shared" si="8"/>
-        <v>0.5</v>
+        <f>AA41*Q41+AB41*R41+AC41*S41</f>
       </c>
       <c r="U41" s="3">
-        <f t="shared" si="0"/>
-        <v>236.1336409725966</v>
+        <f>P41*T41</f>
       </c>
       <c r="V41" s="3">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07</v>
       </c>
       <c r="W41" s="3">
-        <f t="shared" si="1"/>
-        <v>33.058709736163529</v>
+        <f>P41*V41</f>
       </c>
       <c r="X41" s="3">
-        <f t="shared" si="2"/>
-        <v>16.529354868081764</v>
+        <f>U41*V41</f>
       </c>
       <c r="Y41" s="3">
         <v>0</v>
       </c>
       <c r="Z41" s="3">
-        <f t="shared" si="3"/>
-        <v>49.58806460424529</v>
-      </c>
-      <c r="AA41" s="15">
+        <f>SUM(W41:Y41)</f>
+      </c>
+      <c r="AA41" s="13">
         <v>1</v>
       </c>
       <c r="AB41" s="14">
@@ -5576,45 +5163,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
       <c r="A42" s="1">
         <v>4000</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C42" s="3">
         <v>32169</v>
       </c>
-      <c r="D42" s="18">
-        <v>24.077999999999999</v>
-      </c>
-      <c r="E42" s="20">
-        <v>33.642000000000003</v>
-      </c>
-      <c r="F42" s="20">
-        <v>30.824000000000002</v>
-      </c>
-      <c r="G42" s="18">
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="H42" s="20">
+      <c r="D42" s="12">
+        <v>24.078</v>
+      </c>
+      <c r="E42" s="3">
+        <v>33.642</v>
+      </c>
+      <c r="F42" s="3">
+        <v>30.824</v>
+      </c>
+      <c r="G42" s="12">
+        <v>0.3852</v>
+      </c>
+      <c r="H42" s="3">
         <v>0.3574</v>
       </c>
-      <c r="I42" s="21">
-        <v>0.32490000000000002</v>
-      </c>
-      <c r="J42" s="18">
-        <f t="shared" si="4"/>
-        <v>24.077999999999999</v>
-      </c>
-      <c r="K42" s="18">
-        <f t="shared" si="5"/>
-        <v>0.38519999999999999</v>
+      <c r="I42" s="12">
+        <v>0.3249</v>
+      </c>
+      <c r="J42" s="12">
+        <f>AA42*D42+AB42*E42+AC42*F42</f>
+      </c>
+      <c r="K42" s="12">
+        <f>AA42*G42+AB42*H42+AC42*I42</f>
       </c>
       <c r="L42" s="3">
-        <f t="shared" si="6"/>
-        <v>1311.85356095887</v>
+        <f>J42*C42^K42</f>
       </c>
       <c r="M42" s="3">
         <v>0.6</v>
@@ -5626,8 +5210,7 @@
         <v>1</v>
       </c>
       <c r="P42" s="3">
-        <f t="shared" si="7"/>
-        <v>472.26728194519319</v>
+        <f>L42*M42*(1-N42) *O42</f>
       </c>
       <c r="Q42" s="3">
         <v>0.5</v>
@@ -5639,32 +5222,27 @@
         <v>1.5</v>
       </c>
       <c r="T42" s="3">
-        <f t="shared" si="8"/>
-        <v>0.5</v>
+        <f>AA42*Q42+AB42*R42+AC42*S42</f>
       </c>
       <c r="U42" s="3">
-        <f t="shared" si="0"/>
-        <v>236.1336409725966</v>
+        <f>P42*T42</f>
       </c>
       <c r="V42" s="3">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07</v>
       </c>
       <c r="W42" s="3">
-        <f t="shared" si="1"/>
-        <v>33.058709736163529</v>
+        <f>P42*V42</f>
       </c>
       <c r="X42" s="3">
-        <f t="shared" si="2"/>
-        <v>16.529354868081764</v>
+        <f>U42*V42</f>
       </c>
       <c r="Y42" s="3">
         <v>0</v>
       </c>
       <c r="Z42" s="3">
-        <f t="shared" si="3"/>
-        <v>49.58806460424529</v>
-      </c>
-      <c r="AA42" s="15">
+        <f>SUM(W42:Y42)</f>
+      </c>
+      <c r="AA42" s="13">
         <v>1</v>
       </c>
       <c r="AB42" s="14">
@@ -5692,45 +5270,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
       <c r="A43" s="1">
         <v>5110</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C43" s="3">
         <v>32169</v>
       </c>
-      <c r="D43" s="18">
-        <v>24.077999999999999</v>
-      </c>
-      <c r="E43" s="20">
-        <v>33.642000000000003</v>
-      </c>
-      <c r="F43" s="20">
-        <v>30.824000000000002</v>
-      </c>
-      <c r="G43" s="18">
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="H43" s="20">
+      <c r="D43" s="12">
+        <v>24.078</v>
+      </c>
+      <c r="E43" s="3">
+        <v>33.642</v>
+      </c>
+      <c r="F43" s="3">
+        <v>30.824</v>
+      </c>
+      <c r="G43" s="12">
+        <v>0.3852</v>
+      </c>
+      <c r="H43" s="3">
         <v>0.3574</v>
       </c>
-      <c r="I43" s="21">
-        <v>0.32490000000000002</v>
-      </c>
-      <c r="J43" s="18">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K43" s="18">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="I43" s="12">
+        <v>0.3249</v>
+      </c>
+      <c r="J43" s="12">
+        <f>AA43*D43+AB43*E43+AC43*F43</f>
+      </c>
+      <c r="K43" s="12">
+        <f>AA43*G43+AB43*H43+AC43*I43</f>
       </c>
       <c r="L43" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>J43*C43^K43</f>
       </c>
       <c r="M43" s="3">
         <v>0.6</v>
@@ -5742,8 +5317,7 @@
         <v>1</v>
       </c>
       <c r="P43" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f>L43*M43*(1-N43) *O43</f>
       </c>
       <c r="Q43" s="3">
         <v>0.5</v>
@@ -5755,32 +5329,27 @@
         <v>1.5</v>
       </c>
       <c r="T43" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>AA43*Q43+AB43*R43+AC43*S43</f>
       </c>
       <c r="U43" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>P43*T43</f>
       </c>
       <c r="V43" s="3">
         <v>0</v>
       </c>
       <c r="W43" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>P43*V43</f>
       </c>
       <c r="X43" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>U43*V43</f>
       </c>
       <c r="Y43" s="3">
         <v>0</v>
       </c>
       <c r="Z43" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AA43" s="15">
+        <f>SUM(W43:Y43)</f>
+      </c>
+      <c r="AA43" s="13">
         <v>0</v>
       </c>
       <c r="AB43" s="14">
@@ -5808,45 +5377,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5">
       <c r="A44" s="1">
         <v>5120</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="C44" s="3">
         <v>32169</v>
       </c>
-      <c r="D44" s="18">
-        <v>24.077999999999999</v>
-      </c>
-      <c r="E44" s="20">
-        <v>33.642000000000003</v>
-      </c>
-      <c r="F44" s="20">
-        <v>30.824000000000002</v>
-      </c>
-      <c r="G44" s="18">
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="H44" s="20">
+      <c r="D44" s="12">
+        <v>24.078</v>
+      </c>
+      <c r="E44" s="3">
+        <v>33.642</v>
+      </c>
+      <c r="F44" s="3">
+        <v>30.824</v>
+      </c>
+      <c r="G44" s="12">
+        <v>0.3852</v>
+      </c>
+      <c r="H44" s="3">
         <v>0.3574</v>
       </c>
-      <c r="I44" s="21">
-        <v>0.32490000000000002</v>
-      </c>
-      <c r="J44" s="18">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K44" s="18">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="I44" s="12">
+        <v>0.3249</v>
+      </c>
+      <c r="J44" s="12">
+        <f>AA44*D44+AB44*E44+AC44*F44</f>
+      </c>
+      <c r="K44" s="12">
+        <f>AA44*G44+AB44*H44+AC44*I44</f>
       </c>
       <c r="L44" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>J44*C44^K44</f>
       </c>
       <c r="M44" s="3">
         <v>0.6</v>
@@ -5858,8 +5424,7 @@
         <v>1</v>
       </c>
       <c r="P44" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f>L44*M44*(1-N44) *O44</f>
       </c>
       <c r="Q44" s="3">
         <v>0.5</v>
@@ -5871,32 +5436,27 @@
         <v>1.5</v>
       </c>
       <c r="T44" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>AA44*Q44+AB44*R44+AC44*S44</f>
       </c>
       <c r="U44" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>P44*T44</f>
       </c>
       <c r="V44" s="3">
         <v>0</v>
       </c>
       <c r="W44" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>P44*V44</f>
       </c>
       <c r="X44" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>U44*V44</f>
       </c>
       <c r="Y44" s="3">
         <v>0</v>
       </c>
       <c r="Z44" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AA44" s="15">
+        <f>SUM(W44:Y44)</f>
+      </c>
+      <c r="AA44" s="13">
         <v>0</v>
       </c>
       <c r="AB44" s="14">
@@ -5924,45 +5484,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5">
       <c r="A45" s="1">
         <v>5210</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="C45" s="3">
         <v>32169</v>
       </c>
-      <c r="D45" s="18">
-        <v>24.077999999999999</v>
-      </c>
-      <c r="E45" s="20">
-        <v>33.642000000000003</v>
-      </c>
-      <c r="F45" s="20">
-        <v>30.824000000000002</v>
-      </c>
-      <c r="G45" s="18">
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="H45" s="20">
+      <c r="D45" s="12">
+        <v>24.078</v>
+      </c>
+      <c r="E45" s="3">
+        <v>33.642</v>
+      </c>
+      <c r="F45" s="3">
+        <v>30.824</v>
+      </c>
+      <c r="G45" s="12">
+        <v>0.3852</v>
+      </c>
+      <c r="H45" s="3">
         <v>0.3574</v>
       </c>
-      <c r="I45" s="21">
-        <v>0.32490000000000002</v>
-      </c>
-      <c r="J45" s="18">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K45" s="18">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="I45" s="12">
+        <v>0.3249</v>
+      </c>
+      <c r="J45" s="12">
+        <f>AA45*D45+AB45*E45+AC45*F45</f>
+      </c>
+      <c r="K45" s="12">
+        <f>AA45*G45+AB45*H45+AC45*I45</f>
       </c>
       <c r="L45" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>J45*C45^K45</f>
       </c>
       <c r="M45" s="3">
         <v>0.6</v>
@@ -5974,8 +5531,7 @@
         <v>1</v>
       </c>
       <c r="P45" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f>L45*M45*(1-N45) *O45</f>
       </c>
       <c r="Q45" s="3">
         <v>0.5</v>
@@ -5987,32 +5543,27 @@
         <v>1.5</v>
       </c>
       <c r="T45" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>AA45*Q45+AB45*R45+AC45*S45</f>
       </c>
       <c r="U45" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>P45*T45</f>
       </c>
       <c r="V45" s="3">
         <v>0</v>
       </c>
       <c r="W45" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>P45*V45</f>
       </c>
       <c r="X45" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>U45*V45</f>
       </c>
       <c r="Y45" s="3">
         <v>0</v>
       </c>
       <c r="Z45" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AA45" s="15">
+        <f>SUM(W45:Y45)</f>
+      </c>
+      <c r="AA45" s="13">
         <v>0</v>
       </c>
       <c r="AB45" s="14">
@@ -6040,45 +5591,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5">
       <c r="A46" s="1">
         <v>5220</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="C46" s="3">
         <v>32169</v>
       </c>
-      <c r="D46" s="18">
-        <v>24.077999999999999</v>
-      </c>
-      <c r="E46" s="20">
-        <v>33.642000000000003</v>
-      </c>
-      <c r="F46" s="20">
-        <v>30.824000000000002</v>
-      </c>
-      <c r="G46" s="18">
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="H46" s="20">
+      <c r="D46" s="12">
+        <v>24.078</v>
+      </c>
+      <c r="E46" s="3">
+        <v>33.642</v>
+      </c>
+      <c r="F46" s="3">
+        <v>30.824</v>
+      </c>
+      <c r="G46" s="12">
+        <v>0.3852</v>
+      </c>
+      <c r="H46" s="3">
         <v>0.3574</v>
       </c>
-      <c r="I46" s="21">
-        <v>0.32490000000000002</v>
-      </c>
-      <c r="J46" s="18">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K46" s="18">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="I46" s="12">
+        <v>0.3249</v>
+      </c>
+      <c r="J46" s="12">
+        <f>AA46*D46+AB46*E46+AC46*F46</f>
+      </c>
+      <c r="K46" s="12">
+        <f>AA46*G46+AB46*H46+AC46*I46</f>
       </c>
       <c r="L46" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>J46*C46^K46</f>
       </c>
       <c r="M46" s="3">
         <v>0.6</v>
@@ -6090,8 +5638,7 @@
         <v>1</v>
       </c>
       <c r="P46" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f>L46*M46*(1-N46) *O46</f>
       </c>
       <c r="Q46" s="3">
         <v>0.5</v>
@@ -6103,32 +5650,27 @@
         <v>1.5</v>
       </c>
       <c r="T46" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>AA46*Q46+AB46*R46+AC46*S46</f>
       </c>
       <c r="U46" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>P46*T46</f>
       </c>
       <c r="V46" s="3">
         <v>0</v>
       </c>
       <c r="W46" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>P46*V46</f>
       </c>
       <c r="X46" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>U46*V46</f>
       </c>
       <c r="Y46" s="3">
         <v>0</v>
       </c>
       <c r="Z46" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AA46" s="15">
+        <f>SUM(W46:Y46)</f>
+      </c>
+      <c r="AA46" s="13">
         <v>0</v>
       </c>
       <c r="AB46" s="14">
@@ -6156,45 +5698,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5">
       <c r="A47" s="1">
         <v>5230</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="C47" s="3">
         <v>32169</v>
       </c>
-      <c r="D47" s="18">
-        <v>24.077999999999999</v>
-      </c>
-      <c r="E47" s="20">
-        <v>33.642000000000003</v>
-      </c>
-      <c r="F47" s="20">
-        <v>30.824000000000002</v>
-      </c>
-      <c r="G47" s="18">
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="H47" s="20">
+      <c r="D47" s="12">
+        <v>24.078</v>
+      </c>
+      <c r="E47" s="3">
+        <v>33.642</v>
+      </c>
+      <c r="F47" s="3">
+        <v>30.824</v>
+      </c>
+      <c r="G47" s="12">
+        <v>0.3852</v>
+      </c>
+      <c r="H47" s="3">
         <v>0.3574</v>
       </c>
-      <c r="I47" s="21">
-        <v>0.32490000000000002</v>
-      </c>
-      <c r="J47" s="18">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K47" s="18">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="I47" s="12">
+        <v>0.3249</v>
+      </c>
+      <c r="J47" s="12">
+        <f>AA47*D47+AB47*E47+AC47*F47</f>
+      </c>
+      <c r="K47" s="12">
+        <f>AA47*G47+AB47*H47+AC47*I47</f>
       </c>
       <c r="L47" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>J47*C47^K47</f>
       </c>
       <c r="M47" s="3">
         <v>0.6</v>
@@ -6206,8 +5745,7 @@
         <v>1</v>
       </c>
       <c r="P47" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f>L47*M47*(1-N47) *O47</f>
       </c>
       <c r="Q47" s="3">
         <v>0.5</v>
@@ -6219,32 +5757,27 @@
         <v>1.5</v>
       </c>
       <c r="T47" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>AA47*Q47+AB47*R47+AC47*S47</f>
       </c>
       <c r="U47" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>P47*T47</f>
       </c>
       <c r="V47" s="3">
         <v>0</v>
       </c>
       <c r="W47" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>P47*V47</f>
       </c>
       <c r="X47" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>U47*V47</f>
       </c>
       <c r="Y47" s="3">
         <v>0</v>
       </c>
       <c r="Z47" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AA47" s="15">
+        <f>SUM(W47:Y47)</f>
+      </c>
+      <c r="AA47" s="13">
         <v>0</v>
       </c>
       <c r="AB47" s="14">
@@ -6274,6 +5807,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>